--- a/Output/Statistics/Results_summary.xlsx
+++ b/Output/Statistics/Results_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Acclim_Dynamics/Output/Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744016E2-F055-2B40-98E9-E5B11E532509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A41FC1-B53F-B540-BB32-781C86D78CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="460" windowWidth="27240" windowHeight="19560" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="460" windowWidth="27240" windowHeight="19560" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolism" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="In-field measurements" sheetId="25" r:id="rId5"/>
     <sheet name="Species comparison" sheetId="23" r:id="rId6"/>
     <sheet name="Multivariate Physiology" sheetId="28" r:id="rId7"/>
+    <sheet name="ITS2" sheetId="30" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="94">
   <si>
     <t>Timepoint</t>
   </si>
@@ -484,6 +485,9 @@
   <si>
     <t>RECOVERY PERIOD</t>
   </si>
+  <si>
+    <t xml:space="preserve">ITS2  </t>
+  </si>
 </sst>
 </file>
 
@@ -797,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1141,6 +1145,9 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1156,6 +1163,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,6 +1185,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2939,7 +2961,7 @@
   <dimension ref="B1:R90"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6653,7 +6675,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8027,7 +8049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ABFAF6-E371-0746-B011-7242CD7A8CF9}">
   <dimension ref="B1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -8191,7 +8213,7 @@
       <c r="D16" s="82">
         <v>40.850999999999999</v>
       </c>
-      <c r="E16" s="148">
+      <c r="E16" s="150">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
@@ -8219,7 +8241,7 @@
       <c r="D19" s="82">
         <v>37.777000000000001</v>
       </c>
-      <c r="E19" s="148">
+      <c r="E19" s="150">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -8247,7 +8269,7 @@
       <c r="D22" s="82">
         <v>45.631</v>
       </c>
-      <c r="E22" s="148">
+      <c r="E22" s="150">
         <v>2.3E-3</v>
       </c>
     </row>
@@ -8385,7 +8407,7 @@
       <c r="D37" s="82">
         <v>30.641999999999999</v>
       </c>
-      <c r="E37" s="148">
+      <c r="E37" s="150">
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
@@ -8413,7 +8435,7 @@
       <c r="D40" s="82">
         <v>28.989000000000001</v>
       </c>
-      <c r="E40" s="148">
+      <c r="E40" s="150">
         <v>7.9399999999999991E-3</v>
       </c>
     </row>
@@ -8441,7 +8463,7 @@
       <c r="D43" s="82">
         <v>34.066000000000003</v>
       </c>
-      <c r="E43" s="148" t="s">
+      <c r="E43" s="150" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8469,8 +8491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C362F6-C5EC-A24E-B27B-16669A93CA5C}">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8485,26 +8507,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
       <c r="H1" s="126"/>
       <c r="I1" s="126"/>
       <c r="J1" s="126"/>
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="2:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="126"/>
       <c r="I2" s="126"/>
       <c r="J2" s="126"/>
@@ -8549,22 +8571,22 @@
       <c r="K4" s="41"/>
     </row>
     <row r="5" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="142" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="27">
         <v>4</v>
       </c>
-      <c r="D5" s="142">
+      <c r="D5" s="144">
         <v>203.56</v>
       </c>
-      <c r="E5" s="143">
+      <c r="E5" s="145">
         <v>7.0220000000000005E-2</v>
       </c>
-      <c r="F5" s="138">
+      <c r="F5" s="139">
         <v>5.4787999999999997</v>
       </c>
-      <c r="G5" s="140">
+      <c r="G5" s="141">
         <v>1E-3</v>
       </c>
       <c r="H5" s="122"/>
@@ -8573,22 +8595,22 @@
       <c r="K5" s="40"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="142" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="27">
         <v>1</v>
       </c>
-      <c r="D6" s="142">
+      <c r="D6" s="144">
         <v>130.16</v>
       </c>
-      <c r="E6" s="143">
+      <c r="E6" s="145">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="139">
         <v>14.012700000000001</v>
       </c>
-      <c r="G6" s="139">
+      <c r="G6" s="140">
         <v>1E-3</v>
       </c>
       <c r="H6" s="122"/>
@@ -8621,22 +8643,22 @@
       <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="142" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="27">
         <v>1</v>
       </c>
-      <c r="D8" s="142">
+      <c r="D8" s="144">
         <v>298.93</v>
       </c>
-      <c r="E8" s="143">
+      <c r="E8" s="145">
         <v>0.10310999999999999</v>
       </c>
-      <c r="F8" s="138">
+      <c r="F8" s="139">
         <v>32.183100000000003</v>
       </c>
-      <c r="G8" s="139">
+      <c r="G8" s="140">
         <v>1E-3</v>
       </c>
       <c r="H8" s="41"/>
@@ -8645,22 +8667,22 @@
       <c r="K8" s="43"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="142" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="27">
         <v>4</v>
       </c>
-      <c r="D9" s="142">
+      <c r="D9" s="144">
         <v>115.98</v>
       </c>
-      <c r="E9" s="143">
+      <c r="E9" s="145">
         <v>4.0009999999999997E-2</v>
       </c>
-      <c r="F9" s="138">
+      <c r="F9" s="139">
         <v>3.1217999999999999</v>
       </c>
-      <c r="G9" s="139">
+      <c r="G9" s="140">
         <v>1E-3</v>
       </c>
       <c r="H9" s="41"/>
@@ -8669,22 +8691,22 @@
       <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="142" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="27">
         <v>4</v>
       </c>
-      <c r="D10" s="142">
+      <c r="D10" s="144">
         <v>69.680000000000007</v>
       </c>
-      <c r="E10" s="143">
+      <c r="E10" s="145">
         <v>2.4039999999999999E-2</v>
       </c>
-      <c r="F10" s="138">
+      <c r="F10" s="139">
         <v>1.8754999999999999</v>
       </c>
-      <c r="G10" s="147">
+      <c r="G10" s="149">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H10" s="41"/>
@@ -8717,22 +8739,22 @@
       <c r="K11" s="41"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="142" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="27">
         <v>4</v>
       </c>
-      <c r="D12" s="142">
+      <c r="D12" s="144">
         <v>145.09</v>
       </c>
-      <c r="E12" s="143">
+      <c r="E12" s="145">
         <v>5.0049999999999997E-2</v>
       </c>
-      <c r="F12" s="138">
+      <c r="F12" s="139">
         <v>3.9051</v>
       </c>
-      <c r="G12" s="139">
+      <c r="G12" s="140">
         <v>1E-3</v>
       </c>
       <c r="H12" s="41"/>
@@ -8741,22 +8763,22 @@
       <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="142" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
       </c>
-      <c r="D13" s="142">
+      <c r="D13" s="144">
         <v>21.56</v>
       </c>
-      <c r="E13" s="143">
+      <c r="E13" s="145">
         <v>7.4400000000000004E-3</v>
       </c>
-      <c r="F13" s="138">
+      <c r="F13" s="139">
         <v>2.3212999999999999</v>
       </c>
-      <c r="G13" s="147">
+      <c r="G13" s="149">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="H13" s="129"/>
@@ -8789,22 +8811,22 @@
       <c r="K14" s="123"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="142" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="27">
         <v>4</v>
       </c>
-      <c r="D15" s="142">
+      <c r="D15" s="144">
         <v>62.88</v>
       </c>
-      <c r="E15" s="143">
+      <c r="E15" s="145">
         <v>2.1690000000000001E-2</v>
       </c>
-      <c r="F15" s="138">
+      <c r="F15" s="139">
         <v>1.6926000000000001</v>
       </c>
-      <c r="G15" s="147">
+      <c r="G15" s="149">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="H15" s="41"/>
@@ -8909,14 +8931,14 @@
       <c r="K19" s="41"/>
     </row>
     <row r="21" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
     </row>
     <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="130" t="s">
@@ -8939,42 +8961,42 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="142" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="27">
         <v>4</v>
       </c>
-      <c r="D23" s="137">
+      <c r="D23" s="138">
         <v>184.65</v>
       </c>
-      <c r="E23" s="137">
+      <c r="E23" s="138">
         <v>0.12681999999999999</v>
       </c>
-      <c r="F23" s="137">
+      <c r="F23" s="138">
         <v>4.2290999999999999</v>
       </c>
-      <c r="G23" s="139">
+      <c r="G23" s="140">
         <v>1E-3</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="142" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="27">
         <v>1</v>
       </c>
-      <c r="D24" s="137">
+      <c r="D24" s="138">
         <v>39.29</v>
       </c>
-      <c r="E24" s="137">
+      <c r="E24" s="138">
         <v>2.699E-2</v>
       </c>
-      <c r="F24" s="137">
+      <c r="F24" s="138">
         <v>3.5994999999999999</v>
       </c>
-      <c r="G24" s="139">
+      <c r="G24" s="140">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -9019,22 +9041,22 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="142" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="27">
         <v>4</v>
       </c>
-      <c r="D27" s="137">
+      <c r="D27" s="138">
         <v>71.81</v>
       </c>
-      <c r="E27" s="137">
+      <c r="E27" s="138">
         <v>4.9320000000000003E-2</v>
       </c>
-      <c r="F27" s="137">
+      <c r="F27" s="138">
         <v>1.6447000000000001</v>
       </c>
-      <c r="G27" s="139">
+      <c r="G27" s="140">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
@@ -9087,14 +9109,14 @@
       <c r="G30" s="135"/>
     </row>
     <row r="31" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
     </row>
     <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="130" t="s">
@@ -9117,42 +9139,42 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="142" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="27">
         <v>4</v>
       </c>
-      <c r="D33" s="137">
+      <c r="D33" s="138">
         <v>171.63</v>
       </c>
-      <c r="E33" s="137">
+      <c r="E33" s="138">
         <v>0.12002</v>
       </c>
-      <c r="F33" s="137">
+      <c r="F33" s="138">
         <v>4.3343999999999996</v>
       </c>
-      <c r="G33" s="139">
+      <c r="G33" s="140">
         <v>1E-3</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="142" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="27">
         <v>1</v>
       </c>
-      <c r="D34" s="137">
+      <c r="D34" s="138">
         <v>139.81</v>
       </c>
-      <c r="E34" s="137">
+      <c r="E34" s="138">
         <v>9.7769999999999996E-2</v>
       </c>
-      <c r="F34" s="137">
+      <c r="F34" s="138">
         <v>14.123100000000001</v>
       </c>
-      <c r="G34" s="139">
+      <c r="G34" s="140">
         <v>1E-3</v>
       </c>
     </row>
@@ -9177,22 +9199,22 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="141" t="s">
+      <c r="B36" s="142" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="27">
         <v>4</v>
       </c>
-      <c r="D36" s="137">
+      <c r="D36" s="138">
         <v>117.25</v>
       </c>
-      <c r="E36" s="137">
+      <c r="E36" s="138">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F36" s="137">
+      <c r="F36" s="138">
         <v>2.9611000000000001</v>
       </c>
-      <c r="G36" s="139">
+      <c r="G36" s="140">
         <v>1E-3</v>
       </c>
     </row>
@@ -9257,32 +9279,32 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="144" t="s">
+      <c r="B42" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
     </row>
     <row r="44" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="146" t="s">
+      <c r="B44" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
     </row>
     <row r="45" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="130" t="s">
@@ -9305,42 +9327,42 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="141" t="s">
+      <c r="B46" s="142" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="27">
         <v>4</v>
       </c>
-      <c r="D46" s="142">
+      <c r="D46" s="144">
         <v>40.950000000000003</v>
       </c>
-      <c r="E46" s="138">
+      <c r="E46" s="139">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="F46" s="138">
+      <c r="F46" s="139">
         <v>2.5587</v>
       </c>
-      <c r="G46" s="139">
+      <c r="G46" s="140">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="141" t="s">
+      <c r="B47" s="142" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="27">
         <v>1</v>
       </c>
-      <c r="D47" s="142">
+      <c r="D47" s="144">
         <v>46.7</v>
       </c>
-      <c r="E47" s="138">
+      <c r="E47" s="139">
         <v>8.1079999999999999E-2</v>
       </c>
-      <c r="F47" s="138">
+      <c r="F47" s="139">
         <v>5.8357999999999999</v>
       </c>
-      <c r="G47" s="139">
+      <c r="G47" s="140">
         <v>2E-3</v>
       </c>
     </row>
@@ -9455,4 +9477,896 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FF8875-836F-5542-A93E-7F77BBB5F49C}">
+  <dimension ref="B1:K52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="68"/>
+    <col min="2" max="2" width="42.6640625" style="132" customWidth="1"/>
+    <col min="3" max="5" width="16.5" style="125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="125" customWidth="1"/>
+    <col min="8" max="11" width="16.5" style="68" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+    </row>
+    <row r="2" spans="2:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+    </row>
+    <row r="3" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="2:11" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="27">
+        <v>10</v>
+      </c>
+      <c r="D5" s="138">
+        <v>119.18</v>
+      </c>
+      <c r="E5" s="145">
+        <v>4.7669999999999997E-2</v>
+      </c>
+      <c r="F5" s="139">
+        <v>1.3438000000000001</v>
+      </c>
+      <c r="G5" s="141">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H5" s="122"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+      <c r="D6" s="136">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E6" s="133">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="F6" s="134">
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="G6" s="135">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H6" s="122"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="136">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="E7" s="133">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="F7" s="134">
+        <v>1.0575000000000001</v>
+      </c>
+      <c r="G7" s="135">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="144">
+        <v>329.71</v>
+      </c>
+      <c r="E8" s="145">
+        <v>0.13188</v>
+      </c>
+      <c r="F8" s="139">
+        <v>37.176200000000001</v>
+      </c>
+      <c r="G8" s="140">
+        <v>1E-3</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="43"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="36">
+        <v>10</v>
+      </c>
+      <c r="D9" s="136">
+        <v>92.17</v>
+      </c>
+      <c r="E9" s="133">
+        <v>3.687E-2</v>
+      </c>
+      <c r="F9" s="134">
+        <v>1.0391999999999999</v>
+      </c>
+      <c r="G9" s="135">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="36">
+        <v>10</v>
+      </c>
+      <c r="D10" s="136">
+        <v>81.459999999999994</v>
+      </c>
+      <c r="E10" s="133">
+        <v>3.2579999999999998E-2</v>
+      </c>
+      <c r="F10" s="134">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="G10" s="135">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="136">
+        <v>13.62</v>
+      </c>
+      <c r="E11" s="133">
+        <v>5.45E-3</v>
+      </c>
+      <c r="F11" s="134">
+        <v>1.5361</v>
+      </c>
+      <c r="G11" s="135">
+        <v>0.121</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="36">
+        <v>10</v>
+      </c>
+      <c r="D12" s="136">
+        <v>95.53</v>
+      </c>
+      <c r="E12" s="133">
+        <v>3.8210000000000001E-2</v>
+      </c>
+      <c r="F12" s="134">
+        <v>1.1968000000000001</v>
+      </c>
+      <c r="G12" s="135">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="36">
+        <v>1</v>
+      </c>
+      <c r="D13" s="136">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E13" s="133">
+        <v>1.81E-3</v>
+      </c>
+      <c r="F13" s="134">
+        <v>0.51</v>
+      </c>
+      <c r="G13" s="135">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="131" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="36">
+        <v>1</v>
+      </c>
+      <c r="D14" s="136">
+        <v>9.32</v>
+      </c>
+      <c r="E14" s="133">
+        <v>3.7299999999999998E-3</v>
+      </c>
+      <c r="F14" s="134">
+        <v>1.0505</v>
+      </c>
+      <c r="G14" s="135">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="36">
+        <v>10</v>
+      </c>
+      <c r="D15" s="136">
+        <v>45.77</v>
+      </c>
+      <c r="E15" s="133">
+        <v>1.831E-2</v>
+      </c>
+      <c r="F15" s="134">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G15" s="135">
+        <v>1</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="131" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="36">
+        <v>10</v>
+      </c>
+      <c r="D16" s="136">
+        <v>88.2</v>
+      </c>
+      <c r="E16" s="133">
+        <v>3.5279999999999999E-2</v>
+      </c>
+      <c r="F16" s="134">
+        <v>1.105</v>
+      </c>
+      <c r="G16" s="135">
+        <v>0.23</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="36">
+        <v>10</v>
+      </c>
+      <c r="D17" s="136">
+        <v>69.92</v>
+      </c>
+      <c r="E17" s="133">
+        <v>2.7969999999999998E-2</v>
+      </c>
+      <c r="F17" s="134">
+        <v>0.876</v>
+      </c>
+      <c r="G17" s="135">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="36">
+        <v>1</v>
+      </c>
+      <c r="D18" s="136">
+        <v>13.35</v>
+      </c>
+      <c r="E18" s="133">
+        <v>5.3400000000000001E-3</v>
+      </c>
+      <c r="F18" s="134">
+        <v>1.5057</v>
+      </c>
+      <c r="G18" s="135">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="36">
+        <v>10</v>
+      </c>
+      <c r="D19" s="136">
+        <v>42.32</v>
+      </c>
+      <c r="E19" s="133">
+        <v>1.6930000000000001E-2</v>
+      </c>
+      <c r="F19" s="134">
+        <v>0.5302</v>
+      </c>
+      <c r="G19" s="135">
+        <v>1</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="21" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="27">
+        <v>10</v>
+      </c>
+      <c r="D23" s="144">
+        <v>107.8</v>
+      </c>
+      <c r="E23" s="145">
+        <v>0.10285999999999999</v>
+      </c>
+      <c r="F23" s="138">
+        <v>1.3376999999999999</v>
+      </c>
+      <c r="G23" s="140">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="36">
+        <v>1</v>
+      </c>
+      <c r="D24" s="136">
+        <v>7.88</v>
+      </c>
+      <c r="E24" s="133">
+        <v>7.5199999999999998E-3</v>
+      </c>
+      <c r="F24" s="128">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="G24" s="135">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="36">
+        <v>1</v>
+      </c>
+      <c r="D25" s="136">
+        <v>6.37</v>
+      </c>
+      <c r="E25" s="133">
+        <v>6.0800000000000003E-3</v>
+      </c>
+      <c r="F25" s="128">
+        <v>0.7903</v>
+      </c>
+      <c r="G25" s="135">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="36">
+        <v>10</v>
+      </c>
+      <c r="D26" s="136">
+        <v>94.42</v>
+      </c>
+      <c r="E26" s="133">
+        <v>9.01E-2</v>
+      </c>
+      <c r="F26" s="128">
+        <v>1.1717</v>
+      </c>
+      <c r="G26" s="135">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="36">
+        <v>10</v>
+      </c>
+      <c r="D27" s="136">
+        <v>68.680000000000007</v>
+      </c>
+      <c r="E27" s="133">
+        <v>6.5540000000000001E-2</v>
+      </c>
+      <c r="F27" s="128">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="G27" s="135">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1</v>
+      </c>
+      <c r="D28" s="136">
+        <v>10.94</v>
+      </c>
+      <c r="E28" s="133">
+        <v>1.044E-2</v>
+      </c>
+      <c r="F28" s="128">
+        <v>1.3573</v>
+      </c>
+      <c r="G28" s="135">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="36">
+        <v>10</v>
+      </c>
+      <c r="D29" s="136">
+        <v>42.76</v>
+      </c>
+      <c r="E29" s="133">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="F29" s="128">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="G29" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="131"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="135"/>
+    </row>
+    <row r="31" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="36">
+        <v>10</v>
+      </c>
+      <c r="D33" s="136">
+        <v>44</v>
+      </c>
+      <c r="E33" s="133">
+        <v>7.4579999999999994E-2</v>
+      </c>
+      <c r="F33" s="128">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="G33" s="135">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="36">
+        <v>1</v>
+      </c>
+      <c r="D34" s="136">
+        <v>2.25</v>
+      </c>
+      <c r="E34" s="133">
+        <v>3.81E-3</v>
+      </c>
+      <c r="F34" s="128">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="G34" s="135">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="36">
+        <v>1</v>
+      </c>
+      <c r="D35" s="136">
+        <v>7.63</v>
+      </c>
+      <c r="E35" s="133">
+        <v>1.2919999999999999E-2</v>
+      </c>
+      <c r="F35" s="128">
+        <v>1.5159</v>
+      </c>
+      <c r="G35" s="135">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="36">
+        <v>10</v>
+      </c>
+      <c r="D36" s="136">
+        <v>55.42</v>
+      </c>
+      <c r="E36" s="133">
+        <v>9.3939999999999996E-2</v>
+      </c>
+      <c r="F36" s="128">
+        <v>1.2242</v>
+      </c>
+      <c r="G36" s="135">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="36">
+        <v>10</v>
+      </c>
+      <c r="D37" s="136">
+        <v>40.5</v>
+      </c>
+      <c r="E37" s="133">
+        <v>6.8650000000000003E-2</v>
+      </c>
+      <c r="F37" s="128">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="G37" s="135">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="36">
+        <v>1</v>
+      </c>
+      <c r="D38" s="136">
+        <v>10.59</v>
+      </c>
+      <c r="E38" s="133">
+        <v>1.7950000000000001E-2</v>
+      </c>
+      <c r="F38" s="128">
+        <v>2.1055000000000001</v>
+      </c>
+      <c r="G38" s="135">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="36">
+        <v>10</v>
+      </c>
+      <c r="D39" s="136">
+        <v>32.21</v>
+      </c>
+      <c r="E39" s="133">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="F39" s="128">
+        <v>0.71150000000000002</v>
+      </c>
+      <c r="G39" s="135">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+    </row>
+    <row r="44" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="152"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="52"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="137"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="52"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="137"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="39"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="143"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="39"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="143"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="39"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="143"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="39"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="143"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="39"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="143"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B42:G43"/>
+    <mergeCell ref="B44:G44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Output/Statistics/Results_summary.xlsx
+++ b/Output/Statistics/Results_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Acclim_Dynamics/Output/Statistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Acclim_Dynamics/output/Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFBC730-AE89-6542-AC22-0BD331A39C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207C6455-1C63-9D4C-94DB-A3294C88ED3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="460" windowWidth="28260" windowHeight="19680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolism" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="ITS2" sheetId="30" r:id="rId8"/>
     <sheet name="Light" sheetId="35" r:id="rId9"/>
     <sheet name="TA" sheetId="34" r:id="rId10"/>
-    <sheet name="Cell Counts Tukey Post Hoc" sheetId="31" r:id="rId11"/>
-    <sheet name="Chlorophyll- Tukey Post Hoc" sheetId="32" r:id="rId12"/>
+    <sheet name="Cell Counts Tukey Post Hoc" sheetId="31" state="hidden" r:id="rId11"/>
+    <sheet name="Chlorophyll- Tukey Post Hoc" sheetId="32" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Cell Counts Tukey Post Hoc'!$A$2:$H$2</definedName>
@@ -1530,7 +1530,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1780,6 +1780,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1790,18 +1819,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,14 +1833,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1855,15 +1884,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1872,39 +1893,17 @@
     <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -2321,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5F79C1-D35C-C047-889A-12882B507491}">
   <dimension ref="B1:L90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2343,48 +2342,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
     </row>
     <row r="3" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="H3" s="103" t="s">
+      <c r="B3" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="H3" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
     </row>
     <row r="4" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -3696,167 +3695,167 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
     </row>
     <row r="5" spans="3:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
     </row>
     <row r="6" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="104" t="s">
         <v>291</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="105" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="105" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="106" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="133">
+      <c r="D7" s="106">
         <v>48</v>
       </c>
-      <c r="E7" s="134">
+      <c r="E7" s="107">
         <v>2159.0633389999998</v>
       </c>
-      <c r="F7" s="134">
+      <c r="F7" s="107">
         <v>5.8888747800000001</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="D8" s="133">
+      <c r="D8" s="106">
         <v>48</v>
       </c>
-      <c r="E8" s="134">
+      <c r="E8" s="107">
         <v>2162.7442700000001</v>
       </c>
-      <c r="F8" s="134">
+      <c r="F8" s="107">
         <v>5.4893147100000004</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="D9" s="133">
+      <c r="D9" s="106">
         <v>48</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="107">
         <v>2155.5762199999999</v>
       </c>
-      <c r="F9" s="134">
+      <c r="F9" s="107">
         <v>5.2463653499999996</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="D10" s="133">
+      <c r="D10" s="106">
         <v>48</v>
       </c>
-      <c r="E10" s="134">
+      <c r="E10" s="107">
         <v>2156.7937919999999</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="107">
         <v>5.31045531</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
     </row>
     <row r="12" spans="3:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="146" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
     </row>
     <row r="13" spans="3:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="105" t="s">
         <v>302</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="E13" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="F13" s="105" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="140">
+      <c r="D14" s="111">
         <v>170.04669999999999</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="111">
         <v>15</v>
       </c>
-      <c r="F14" s="141" t="s">
+      <c r="F14" s="112" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="D15" s="137">
+      <c r="D15" s="108">
         <v>1.1033999999999999</v>
       </c>
-      <c r="E15" s="137">
+      <c r="E15" s="108">
         <v>3</v>
       </c>
-      <c r="F15" s="137">
+      <c r="F15" s="108">
         <v>0.7762</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="108" t="s">
         <v>301</v>
       </c>
-      <c r="D16" s="137">
+      <c r="D16" s="108">
         <v>43.8277</v>
       </c>
-      <c r="E16" s="137">
+      <c r="E16" s="108">
         <v>45</v>
       </c>
-      <c r="F16" s="137">
+      <c r="F16" s="108">
         <v>0.51259999999999994</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3871,7 +3870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93BA485-F0F1-6543-B73B-F29A45C417C8}">
   <dimension ref="A1:H572"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A146" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -3885,16 +3884,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="149" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="100" t="s">
@@ -18765,7 +18764,7 @@
   <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18778,16 +18777,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="149" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="100" t="s">
@@ -23425,67 +23424,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="N1" s="104" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="N1" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
     </row>
     <row r="2" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
     </row>
     <row r="3" spans="2:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="H3" s="106" t="s">
+      <c r="B3" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="H3" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="N3" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="N3" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
     </row>
     <row r="4" spans="2:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -25386,67 +25385,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="N1" s="104" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="N1" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
     </row>
     <row r="2" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
     </row>
     <row r="3" spans="2:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="H3" s="103" t="s">
+      <c r="B3" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="H3" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="N3" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="N3" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
     </row>
     <row r="4" spans="2:18" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -27086,26 +27085,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="2:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
     </row>
     <row r="3" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="70" t="s">
@@ -27120,24 +27119,24 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="2:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="114"/>
+      <c r="C4" s="125"/>
       <c r="D4" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110" t="s">
+      <c r="G4" s="128"/>
+      <c r="H4" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="110"/>
+      <c r="I4" s="128"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D5" s="19" t="s">
@@ -27146,14 +27145,14 @@
       <c r="E5" s="20">
         <v>1</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F5" s="129">
         <v>21.004000000000001</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="109" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="109"/>
+      <c r="I5" s="131"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D6" s="19" t="s">
@@ -27162,14 +27161,14 @@
       <c r="E6" s="20">
         <v>1</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F6" s="129">
         <v>11.489100000000001</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109">
+      <c r="G6" s="129"/>
+      <c r="H6" s="131">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I6" s="109"/>
+      <c r="I6" s="131"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D7" s="32" t="s">
@@ -27178,14 +27177,14 @@
       <c r="E7" s="30">
         <v>1</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="130">
         <v>0.29139999999999999</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115">
+      <c r="G7" s="130"/>
+      <c r="H7" s="130">
         <v>0.58930000000000005</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="130"/>
     </row>
     <row r="9" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="71" t="s">
@@ -27212,10 +27211,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="19" t="s">
         <v>49</v>
       </c>
@@ -27236,8 +27235,8 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="19" t="s">
         <v>50</v>
       </c>
@@ -27281,14 +27280,14 @@
       <c r="E14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110" t="s">
+      <c r="G14" s="128"/>
+      <c r="H14" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="110"/>
+      <c r="I14" s="128"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D15" s="32" t="s">
@@ -27297,14 +27296,14 @@
       <c r="E15" s="30">
         <v>-7359.299</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="132">
         <v>-5183.3040000000001</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107">
+      <c r="G15" s="132"/>
+      <c r="H15" s="132">
         <v>-4472.5200000000004</v>
       </c>
-      <c r="I15" s="107"/>
+      <c r="I15" s="132"/>
     </row>
     <row r="18" spans="2:9" ht="19" x14ac:dyDescent="0.2">
       <c r="B18" s="70" t="s">
@@ -27319,24 +27318,24 @@
       <c r="I18" s="37"/>
     </row>
     <row r="19" spans="2:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="114"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="110" t="s">
+      <c r="F19" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110" t="s">
+      <c r="G19" s="128"/>
+      <c r="H19" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="110"/>
+      <c r="I19" s="128"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D20" s="32" t="s">
@@ -27345,14 +27344,14 @@
       <c r="E20" s="30">
         <v>1</v>
       </c>
-      <c r="F20" s="115">
+      <c r="F20" s="130">
         <v>2.2172999999999998</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115">
+      <c r="G20" s="130"/>
+      <c r="H20" s="130">
         <v>0.13650000000000001</v>
       </c>
-      <c r="I20" s="115"/>
+      <c r="I20" s="130"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D21" s="19" t="s">
@@ -27361,14 +27360,14 @@
       <c r="E21" s="20">
         <v>1</v>
       </c>
-      <c r="F21" s="108">
+      <c r="F21" s="129">
         <v>40.541200000000003</v>
       </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109" t="s">
+      <c r="G21" s="129"/>
+      <c r="H21" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="109"/>
+      <c r="I21" s="131"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D22" s="19" t="s">
@@ -27377,14 +27376,14 @@
       <c r="E22" s="20">
         <v>1</v>
       </c>
-      <c r="F22" s="108">
+      <c r="F22" s="129">
         <v>79.950599999999994</v>
       </c>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109" t="s">
+      <c r="G22" s="129"/>
+      <c r="H22" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="109"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="24" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="71" t="s">
@@ -27411,10 +27410,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="111"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="39" t="s">
         <v>49</v>
       </c>
@@ -27435,8 +27434,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="19" t="s">
         <v>50</v>
       </c>
@@ -27480,14 +27479,14 @@
       <c r="E29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="110" t="s">
+      <c r="F29" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110" t="s">
+      <c r="G29" s="128"/>
+      <c r="H29" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="110"/>
+      <c r="I29" s="128"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D30" s="32" t="s">
@@ -27496,28 +27495,23 @@
       <c r="E30" s="30">
         <v>-24130.77</v>
       </c>
-      <c r="F30" s="107" t="s">
+      <c r="F30" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107">
+      <c r="G30" s="132"/>
+      <c r="H30" s="132">
         <v>-18100.5</v>
       </c>
-      <c r="I30" s="107"/>
+      <c r="I30" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="B25:C26"/>
@@ -27530,12 +27524,17 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27561,50 +27560,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
       <c r="G1" s="53"/>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
       <c r="G2" s="53"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="H3" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
+      <c r="B3" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="H3" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
     </row>
     <row r="4" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="48" t="s">
@@ -28039,20 +28038,20 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="H20" s="118" t="s">
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="H20" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
     </row>
     <row r="21" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="s">
@@ -28441,18 +28440,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
     </row>
     <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="50" t="s">
@@ -28884,40 +28883,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
       <c r="H1" s="81"/>
       <c r="I1" s="81"/>
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
     </row>
     <row r="2" spans="2:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
       <c r="H2" s="81"/>
       <c r="I2" s="81"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
     </row>
     <row r="3" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -29308,14 +29307,14 @@
       <c r="K19" s="32"/>
     </row>
     <row r="21" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
     </row>
     <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="84" t="s">
@@ -29486,14 +29485,14 @@
       <c r="G30" s="88"/>
     </row>
     <row r="31" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
     </row>
     <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="84" t="s">
@@ -29656,32 +29655,32 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="124" t="s">
+      <c r="B42" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
     </row>
     <row r="44" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="123" t="s">
+      <c r="B44" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
     </row>
     <row r="45" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="84" t="s">
@@ -29876,40 +29875,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
       <c r="H1" s="81"/>
       <c r="I1" s="81"/>
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
     </row>
     <row r="2" spans="2:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
       <c r="H2" s="81"/>
       <c r="I2" s="81"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
     </row>
     <row r="3" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -30300,14 +30299,14 @@
       <c r="K19" s="32"/>
     </row>
     <row r="21" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
     </row>
     <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="84" t="s">
@@ -30478,14 +30477,14 @@
       <c r="G30" s="88"/>
     </row>
     <row r="31" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
     </row>
     <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="84" t="s">
@@ -30648,28 +30647,28 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
     </row>
     <row r="44" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="99"/>
@@ -30752,7 +30751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE127B-7B53-574B-9873-73BCF871E1D2}">
   <dimension ref="C3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="143" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -30767,251 +30766,243 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
     </row>
     <row r="4" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="146" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
     </row>
     <row r="5" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="114" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="114" t="s">
         <v>309</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="143" t="s">
+      <c r="H5" s="114" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="108" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="137">
+      <c r="D6" s="108">
         <v>5</v>
       </c>
-      <c r="E6" s="137">
+      <c r="E6" s="108">
         <v>23764</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="109">
         <v>4753</v>
       </c>
-      <c r="G6" s="137">
+      <c r="G6" s="108">
         <v>0.155</v>
       </c>
-      <c r="H6" s="137">
+      <c r="H6" s="108">
         <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="D7" s="137">
+      <c r="D7" s="108">
         <v>11</v>
       </c>
-      <c r="E7" s="137">
+      <c r="E7" s="108">
         <v>498085</v>
       </c>
-      <c r="F7" s="137">
+      <c r="F7" s="108">
         <v>45280</v>
       </c>
-      <c r="G7" s="137">
+      <c r="G7" s="108">
         <v>1.4750000000000001</v>
       </c>
-      <c r="H7" s="137">
+      <c r="H7" s="108">
         <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="108" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="137">
+      <c r="D8" s="108">
         <v>55</v>
       </c>
-      <c r="E8" s="137">
+      <c r="E8" s="108">
         <v>120265</v>
       </c>
-      <c r="F8" s="137">
+      <c r="F8" s="108">
         <v>2187</v>
       </c>
-      <c r="G8" s="137">
+      <c r="G8" s="108">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="H8" s="145">
+      <c r="H8" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="137"/>
+      <c r="C9" s="108"/>
     </row>
     <row r="10" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="3:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="146" t="s">
         <v>308</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
     </row>
     <row r="12" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="113" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="143" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146" t="s">
+      <c r="F12" s="143"/>
+      <c r="G12" s="143" t="s">
         <v>298</v>
       </c>
-      <c r="H12" s="146"/>
+      <c r="H12" s="143"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="149" t="s">
+      <c r="C13" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="D13" s="133">
+      <c r="D13" s="106">
         <v>212</v>
       </c>
-      <c r="E13" s="147">
+      <c r="E13" s="145">
         <v>179.6969</v>
       </c>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147">
+      <c r="F13" s="145"/>
+      <c r="G13" s="145">
         <v>9.9698010000000004</v>
       </c>
-      <c r="H13" s="147"/>
+      <c r="H13" s="145"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="117" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="106">
         <v>211</v>
       </c>
-      <c r="E14" s="147">
+      <c r="E14" s="145">
         <v>186.54220000000001</v>
       </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147">
+      <c r="F14" s="145"/>
+      <c r="G14" s="145">
         <v>10.195854000000001</v>
       </c>
-      <c r="H14" s="147"/>
+      <c r="H14" s="145"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="117" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="106">
         <v>210</v>
       </c>
-      <c r="E15" s="147">
+      <c r="E15" s="145">
         <v>176.6369</v>
       </c>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147">
+      <c r="F15" s="145"/>
+      <c r="G15" s="145">
         <v>10.840081</v>
       </c>
-      <c r="H15" s="147"/>
+      <c r="H15" s="145"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="117" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="133">
+      <c r="D16" s="106">
         <v>211</v>
       </c>
-      <c r="E16" s="147">
+      <c r="E16" s="145">
         <v>165.1191</v>
       </c>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147">
+      <c r="F16" s="145"/>
+      <c r="G16" s="145">
         <v>10.414528000000001</v>
       </c>
-      <c r="H16" s="147"/>
+      <c r="H16" s="145"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
     </row>
     <row r="18" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="147" t="s">
         <v>305</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
     </row>
     <row r="19" spans="3:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="E19" s="146" t="s">
+      <c r="E19" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146" t="s">
+      <c r="F19" s="143"/>
+      <c r="G19" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="146"/>
+      <c r="H19" s="143"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="D20" s="137">
+      <c r="D20" s="108">
         <v>2.0687000000000002</v>
       </c>
-      <c r="E20" s="150">
+      <c r="E20" s="144">
         <v>3</v>
       </c>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150">
+      <c r="F20" s="144"/>
+      <c r="G20" s="144">
         <v>0.55830000000000002</v>
       </c>
-      <c r="H20" s="150"/>
+      <c r="H20" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C4:H4"/>
@@ -31021,6 +31012,14 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/Statistics/Results_summary.xlsx
+++ b/Output/Statistics/Results_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmaStrand\MyProjects\Acclim_Dynamics\Output\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88552597-6BB9-474D-81F2-96CC83122990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B10206-B177-4376-9833-95D8537CA258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolism" sheetId="2" r:id="rId1"/>
@@ -5246,6 +5246,21 @@
     <xf numFmtId="15" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5256,18 +5271,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5282,14 +5285,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5321,20 +5336,20 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5344,21 +5359,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -5797,48 +5797,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
     </row>
     <row r="2" spans="2:12" ht="15.6" thickBot="1">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="2:12" ht="18" thickBot="1">
-      <c r="B3" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="H3" s="123" t="s">
+      <c r="B3" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="H3" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B4" s="11" t="s">
@@ -7154,12 +7154,12 @@
       <c r="F3" s="103"/>
     </row>
     <row r="5" spans="3:6" ht="18">
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="158" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
     </row>
     <row r="6" spans="3:6" ht="16.2" thickBot="1">
       <c r="C6" s="104" t="s">
@@ -7238,12 +7238,12 @@
       <c r="F11" s="108"/>
     </row>
     <row r="12" spans="3:6" ht="18">
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="156" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="3:6" ht="19.2" thickBot="1">
       <c r="C13" s="104" t="s">
@@ -7342,12 +7342,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
     </row>
     <row r="3" spans="2:7" ht="16.2" thickBot="1">
       <c r="B3" s="118" t="s">
@@ -7582,24 +7582,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="16.2" thickBot="1">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="124" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="125" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="158" t="s">
+      <c r="D3" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="158" t="s">
+      <c r="E3" s="125" t="s">
         <v>294</v>
       </c>
-      <c r="F3" s="158" t="s">
+      <c r="F3" s="125" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="156">
+      <c r="B4" s="123">
         <v>43365</v>
       </c>
       <c r="C4" s="108" t="s">
@@ -7616,7 +7616,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="156">
+      <c r="B5" s="123">
         <v>43366</v>
       </c>
       <c r="C5" s="108" t="s">
@@ -7633,7 +7633,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="156">
+      <c r="B6" s="123">
         <v>43367</v>
       </c>
       <c r="C6" s="108" t="s">
@@ -7650,7 +7650,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="156">
+      <c r="B7" s="123">
         <v>43368</v>
       </c>
       <c r="C7" s="108" t="s">
@@ -7667,7 +7667,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="156">
+      <c r="B8" s="123">
         <v>43369</v>
       </c>
       <c r="C8" s="108" t="s">
@@ -7684,7 +7684,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="156">
+      <c r="B9" s="123">
         <v>43370</v>
       </c>
       <c r="C9" s="108" t="s">
@@ -7701,7 +7701,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="156">
+      <c r="B10" s="123">
         <v>43371</v>
       </c>
       <c r="C10" s="108" t="s">
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="156">
+      <c r="B11" s="123">
         <v>43372</v>
       </c>
       <c r="C11" s="108" t="s">
@@ -7735,7 +7735,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="156">
+      <c r="B12" s="123">
         <v>43373</v>
       </c>
       <c r="C12" s="108" t="s">
@@ -7752,7 +7752,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="156">
+      <c r="B13" s="123">
         <v>43374</v>
       </c>
       <c r="C13" s="108" t="s">
@@ -7769,7 +7769,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="156">
+      <c r="B14" s="123">
         <v>43375</v>
       </c>
       <c r="C14" s="108" t="s">
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="156">
+      <c r="B15" s="123">
         <v>43376</v>
       </c>
       <c r="C15" s="108" t="s">
@@ -7803,7 +7803,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="156">
+      <c r="B16" s="123">
         <v>43377</v>
       </c>
       <c r="C16" s="108" t="s">
@@ -7820,7 +7820,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="156">
+      <c r="B17" s="123">
         <v>43378</v>
       </c>
       <c r="C17" s="108" t="s">
@@ -7837,7 +7837,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="156">
+      <c r="B18" s="123">
         <v>43379</v>
       </c>
       <c r="C18" s="108" t="s">
@@ -7854,7 +7854,7 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="156">
+      <c r="B19" s="123">
         <v>43380</v>
       </c>
       <c r="C19" s="108" t="s">
@@ -7871,7 +7871,7 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="156">
+      <c r="B20" s="123">
         <v>43381</v>
       </c>
       <c r="C20" s="108" t="s">
@@ -7888,7 +7888,7 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="156">
+      <c r="B21" s="123">
         <v>43382</v>
       </c>
       <c r="C21" s="108" t="s">
@@ -7905,7 +7905,7 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="156">
+      <c r="B22" s="123">
         <v>43383</v>
       </c>
       <c r="C22" s="108" t="s">
@@ -7922,7 +7922,7 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="156">
+      <c r="B23" s="123">
         <v>43384</v>
       </c>
       <c r="C23" s="108" t="s">
@@ -7939,7 +7939,7 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="156">
+      <c r="B24" s="123">
         <v>43385</v>
       </c>
       <c r="C24" s="108" t="s">
@@ -7956,7 +7956,7 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="156">
+      <c r="B25" s="123">
         <v>43386</v>
       </c>
       <c r="C25" s="108" t="s">
@@ -7973,7 +7973,7 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="156">
+      <c r="B26" s="123">
         <v>43387</v>
       </c>
       <c r="C26" s="108" t="s">
@@ -7990,7 +7990,7 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="156">
+      <c r="B27" s="123">
         <v>43388</v>
       </c>
       <c r="C27" s="108" t="s">
@@ -8007,7 +8007,7 @@
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="156">
+      <c r="B28" s="123">
         <v>43389</v>
       </c>
       <c r="C28" s="108" t="s">
@@ -8024,7 +8024,7 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="156">
+      <c r="B29" s="123">
         <v>43390</v>
       </c>
       <c r="C29" s="108" t="s">
@@ -8041,7 +8041,7 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="156">
+      <c r="B30" s="123">
         <v>43391</v>
       </c>
       <c r="C30" s="108" t="s">
@@ -8058,7 +8058,7 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="156">
+      <c r="B31" s="123">
         <v>43392</v>
       </c>
       <c r="C31" s="108" t="s">
@@ -8075,7 +8075,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="156">
+      <c r="B32" s="123">
         <v>43393</v>
       </c>
       <c r="C32" s="108" t="s">
@@ -8092,7 +8092,7 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="156">
+      <c r="B33" s="123">
         <v>43394</v>
       </c>
       <c r="C33" s="108" t="s">
@@ -8109,7 +8109,7 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="156">
+      <c r="B34" s="123">
         <v>43395</v>
       </c>
       <c r="C34" s="108" t="s">
@@ -8126,7 +8126,7 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="156">
+      <c r="B35" s="123">
         <v>43396</v>
       </c>
       <c r="C35" s="108" t="s">
@@ -8143,7 +8143,7 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="156">
+      <c r="B36" s="123">
         <v>43397</v>
       </c>
       <c r="C36" s="108" t="s">
@@ -8160,7 +8160,7 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="156">
+      <c r="B37" s="123">
         <v>43398</v>
       </c>
       <c r="C37" s="108" t="s">
@@ -8177,7 +8177,7 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="156">
+      <c r="B38" s="123">
         <v>43399</v>
       </c>
       <c r="C38" s="108" t="s">
@@ -8194,7 +8194,7 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="156">
+      <c r="B39" s="123">
         <v>43400</v>
       </c>
       <c r="C39" s="108" t="s">
@@ -8211,7 +8211,7 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="156">
+      <c r="B40" s="123">
         <v>43401</v>
       </c>
       <c r="C40" s="108" t="s">
@@ -8228,7 +8228,7 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="156">
+      <c r="B41" s="123">
         <v>43402</v>
       </c>
       <c r="C41" s="108" t="s">
@@ -8245,7 +8245,7 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="156">
+      <c r="B42" s="123">
         <v>43403</v>
       </c>
       <c r="C42" s="108" t="s">
@@ -8262,7 +8262,7 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="156">
+      <c r="B43" s="123">
         <v>43404</v>
       </c>
       <c r="C43" s="108" t="s">
@@ -8279,7 +8279,7 @@
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="156">
+      <c r="B44" s="123">
         <v>43405</v>
       </c>
       <c r="C44" s="108" t="s">
@@ -8296,7 +8296,7 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="156">
+      <c r="B45" s="123">
         <v>43406</v>
       </c>
       <c r="C45" s="108" t="s">
@@ -8313,7 +8313,7 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="156">
+      <c r="B46" s="123">
         <v>43407</v>
       </c>
       <c r="C46" s="108" t="s">
@@ -8330,7 +8330,7 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="156">
+      <c r="B47" s="123">
         <v>43408</v>
       </c>
       <c r="C47" s="108" t="s">
@@ -8347,7 +8347,7 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="156">
+      <c r="B48" s="123">
         <v>43409</v>
       </c>
       <c r="C48" s="108" t="s">
@@ -8364,7 +8364,7 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="156">
+      <c r="B49" s="123">
         <v>43410</v>
       </c>
       <c r="C49" s="108" t="s">
@@ -8381,7 +8381,7 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="156">
+      <c r="B50" s="123">
         <v>43411</v>
       </c>
       <c r="C50" s="108" t="s">
@@ -8398,7 +8398,7 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="156">
+      <c r="B51" s="123">
         <v>43412</v>
       </c>
       <c r="C51" s="108" t="s">
@@ -8415,7 +8415,7 @@
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="156">
+      <c r="B52" s="123">
         <v>43413</v>
       </c>
       <c r="C52" s="108" t="s">
@@ -8432,7 +8432,7 @@
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="156">
+      <c r="B53" s="123">
         <v>43414</v>
       </c>
       <c r="C53" s="108" t="s">
@@ -8449,7 +8449,7 @@
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="156">
+      <c r="B54" s="123">
         <v>43415</v>
       </c>
       <c r="C54" s="108" t="s">
@@ -8466,7 +8466,7 @@
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="156">
+      <c r="B55" s="123">
         <v>43416</v>
       </c>
       <c r="C55" s="108" t="s">
@@ -8483,7 +8483,7 @@
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="156">
+      <c r="B56" s="123">
         <v>43417</v>
       </c>
       <c r="C56" s="108" t="s">
@@ -8500,7 +8500,7 @@
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="156">
+      <c r="B57" s="123">
         <v>43418</v>
       </c>
       <c r="C57" s="108" t="s">
@@ -8517,7 +8517,7 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="156">
+      <c r="B58" s="123">
         <v>43419</v>
       </c>
       <c r="C58" s="108" t="s">
@@ -8534,7 +8534,7 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="156">
+      <c r="B59" s="123">
         <v>43420</v>
       </c>
       <c r="C59" s="108" t="s">
@@ -8551,7 +8551,7 @@
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="156">
+      <c r="B60" s="123">
         <v>43421</v>
       </c>
       <c r="C60" s="108" t="s">
@@ -8568,7 +8568,7 @@
       </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="156">
+      <c r="B61" s="123">
         <v>43422</v>
       </c>
       <c r="C61" s="108" t="s">
@@ -8585,7 +8585,7 @@
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="156">
+      <c r="B62" s="123">
         <v>43423</v>
       </c>
       <c r="C62" s="108" t="s">
@@ -8602,7 +8602,7 @@
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="156">
+      <c r="B63" s="123">
         <v>43424</v>
       </c>
       <c r="C63" s="108" t="s">
@@ -8619,7 +8619,7 @@
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="156">
+      <c r="B64" s="123">
         <v>43425</v>
       </c>
       <c r="C64" s="108" t="s">
@@ -8636,7 +8636,7 @@
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="156">
+      <c r="B65" s="123">
         <v>43426</v>
       </c>
       <c r="C65" s="108" t="s">
@@ -8653,7 +8653,7 @@
       </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="156">
+      <c r="B66" s="123">
         <v>43427</v>
       </c>
       <c r="C66" s="108" t="s">
@@ -8670,7 +8670,7 @@
       </c>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="156">
+      <c r="B67" s="123">
         <v>43428</v>
       </c>
       <c r="C67" s="108" t="s">
@@ -8687,7 +8687,7 @@
       </c>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="156">
+      <c r="B68" s="123">
         <v>43429</v>
       </c>
       <c r="C68" s="108" t="s">
@@ -8704,7 +8704,7 @@
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="156">
+      <c r="B69" s="123">
         <v>43430</v>
       </c>
       <c r="C69" s="108" t="s">
@@ -8721,7 +8721,7 @@
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="156">
+      <c r="B70" s="123">
         <v>43431</v>
       </c>
       <c r="C70" s="108" t="s">
@@ -8738,7 +8738,7 @@
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="156">
+      <c r="B71" s="123">
         <v>43432</v>
       </c>
       <c r="C71" s="108" t="s">
@@ -8755,7 +8755,7 @@
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="156">
+      <c r="B72" s="123">
         <v>43433</v>
       </c>
       <c r="C72" s="108" t="s">
@@ -8772,7 +8772,7 @@
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="156">
+      <c r="B73" s="123">
         <v>43434</v>
       </c>
       <c r="C73" s="108" t="s">
@@ -8789,7 +8789,7 @@
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="156">
+      <c r="B74" s="123">
         <v>43435</v>
       </c>
       <c r="C74" s="108" t="s">
@@ -8806,7 +8806,7 @@
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="156">
+      <c r="B75" s="123">
         <v>43436</v>
       </c>
       <c r="C75" s="108" t="s">
@@ -8823,7 +8823,7 @@
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="156">
+      <c r="B76" s="123">
         <v>43437</v>
       </c>
       <c r="C76" s="108" t="s">
@@ -8840,7 +8840,7 @@
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="156">
+      <c r="B77" s="123">
         <v>43438</v>
       </c>
       <c r="C77" s="108" t="s">
@@ -8857,7 +8857,7 @@
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="156">
+      <c r="B78" s="123">
         <v>43439</v>
       </c>
       <c r="C78" s="108" t="s">
@@ -8874,7 +8874,7 @@
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="156">
+      <c r="B79" s="123">
         <v>43440</v>
       </c>
       <c r="C79" s="108" t="s">
@@ -8891,7 +8891,7 @@
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="156">
+      <c r="B80" s="123">
         <v>43441</v>
       </c>
       <c r="C80" s="108" t="s">
@@ -8908,7 +8908,7 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="156">
+      <c r="B81" s="123">
         <v>43442</v>
       </c>
       <c r="C81" s="108" t="s">
@@ -8925,7 +8925,7 @@
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="156">
+      <c r="B82" s="123">
         <v>43443</v>
       </c>
       <c r="C82" s="108" t="s">
@@ -8942,7 +8942,7 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="156">
+      <c r="B83" s="123">
         <v>43444</v>
       </c>
       <c r="C83" s="108" t="s">
@@ -8959,7 +8959,7 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="156">
+      <c r="B84" s="123">
         <v>43445</v>
       </c>
       <c r="C84" s="108" t="s">
@@ -8976,7 +8976,7 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="156">
+      <c r="B85" s="123">
         <v>43446</v>
       </c>
       <c r="C85" s="108" t="s">
@@ -8993,7 +8993,7 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="156">
+      <c r="B86" s="123">
         <v>43447</v>
       </c>
       <c r="C86" s="108" t="s">
@@ -9010,7 +9010,7 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="156">
+      <c r="B87" s="123">
         <v>43448</v>
       </c>
       <c r="C87" s="108" t="s">
@@ -9027,7 +9027,7 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="156">
+      <c r="B88" s="123">
         <v>43449</v>
       </c>
       <c r="C88" s="108" t="s">
@@ -9044,7 +9044,7 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="156">
+      <c r="B89" s="123">
         <v>43450</v>
       </c>
       <c r="C89" s="108" t="s">
@@ -9061,7 +9061,7 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="156">
+      <c r="B90" s="123">
         <v>43451</v>
       </c>
       <c r="C90" s="108" t="s">
@@ -9078,7 +9078,7 @@
       </c>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="156">
+      <c r="B91" s="123">
         <v>43452</v>
       </c>
       <c r="C91" s="108" t="s">
@@ -9095,7 +9095,7 @@
       </c>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="156">
+      <c r="B92" s="123">
         <v>43453</v>
       </c>
       <c r="C92" s="108" t="s">
@@ -9112,7 +9112,7 @@
       </c>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="156">
+      <c r="B93" s="123">
         <v>43454</v>
       </c>
       <c r="C93" s="108" t="s">
@@ -9129,7 +9129,7 @@
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="156">
+      <c r="B94" s="123">
         <v>43455</v>
       </c>
       <c r="C94" s="108" t="s">
@@ -9146,7 +9146,7 @@
       </c>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="156">
+      <c r="B95" s="123">
         <v>43456</v>
       </c>
       <c r="C95" s="108" t="s">
@@ -9163,7 +9163,7 @@
       </c>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="156">
+      <c r="B96" s="123">
         <v>43457</v>
       </c>
       <c r="C96" s="108" t="s">
@@ -9180,7 +9180,7 @@
       </c>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="156">
+      <c r="B97" s="123">
         <v>43458</v>
       </c>
       <c r="C97" s="108" t="s">
@@ -9197,7 +9197,7 @@
       </c>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="156">
+      <c r="B98" s="123">
         <v>43459</v>
       </c>
       <c r="C98" s="108" t="s">
@@ -9214,7 +9214,7 @@
       </c>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="156">
+      <c r="B99" s="123">
         <v>43460</v>
       </c>
       <c r="C99" s="108" t="s">
@@ -9231,7 +9231,7 @@
       </c>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="156">
+      <c r="B100" s="123">
         <v>43461</v>
       </c>
       <c r="C100" s="108" t="s">
@@ -9248,7 +9248,7 @@
       </c>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="156">
+      <c r="B101" s="123">
         <v>43462</v>
       </c>
       <c r="C101" s="108" t="s">
@@ -9265,7 +9265,7 @@
       </c>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="156">
+      <c r="B102" s="123">
         <v>43463</v>
       </c>
       <c r="C102" s="108" t="s">
@@ -9282,7 +9282,7 @@
       </c>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="156">
+      <c r="B103" s="123">
         <v>43464</v>
       </c>
       <c r="C103" s="108" t="s">
@@ -9299,7 +9299,7 @@
       </c>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="156">
+      <c r="B104" s="123">
         <v>43465</v>
       </c>
       <c r="C104" s="108" t="s">
@@ -9316,7 +9316,7 @@
       </c>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="156">
+      <c r="B105" s="123">
         <v>43466</v>
       </c>
       <c r="C105" s="108" t="s">
@@ -9333,7 +9333,7 @@
       </c>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="156">
+      <c r="B106" s="123">
         <v>43467</v>
       </c>
       <c r="C106" s="108" t="s">
@@ -9350,7 +9350,7 @@
       </c>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="156">
+      <c r="B107" s="123">
         <v>43468</v>
       </c>
       <c r="C107" s="108" t="s">
@@ -9367,7 +9367,7 @@
       </c>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="156">
+      <c r="B108" s="123">
         <v>43469</v>
       </c>
       <c r="C108" s="108" t="s">
@@ -9384,7 +9384,7 @@
       </c>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="156">
+      <c r="B109" s="123">
         <v>43470</v>
       </c>
       <c r="C109" s="108" t="s">
@@ -9401,7 +9401,7 @@
       </c>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="156">
+      <c r="B110" s="123">
         <v>43471</v>
       </c>
       <c r="C110" s="108" t="s">
@@ -9418,7 +9418,7 @@
       </c>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="156">
+      <c r="B111" s="123">
         <v>43472</v>
       </c>
       <c r="C111" s="108" t="s">
@@ -9435,7 +9435,7 @@
       </c>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="156">
+      <c r="B112" s="123">
         <v>43473</v>
       </c>
       <c r="C112" s="108" t="s">
@@ -9452,7 +9452,7 @@
       </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="156">
+      <c r="B113" s="123">
         <v>43474</v>
       </c>
       <c r="C113" s="108" t="s">
@@ -9469,7 +9469,7 @@
       </c>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="156">
+      <c r="B114" s="123">
         <v>43475</v>
       </c>
       <c r="C114" s="108" t="s">
@@ -9486,7 +9486,7 @@
       </c>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="156">
+      <c r="B115" s="123">
         <v>43476</v>
       </c>
       <c r="C115" s="108" t="s">
@@ -9503,7 +9503,7 @@
       </c>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="156">
+      <c r="B116" s="123">
         <v>43477</v>
       </c>
       <c r="C116" s="108" t="s">
@@ -9520,7 +9520,7 @@
       </c>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="156">
+      <c r="B117" s="123">
         <v>43478</v>
       </c>
       <c r="C117" s="108" t="s">
@@ -9537,7 +9537,7 @@
       </c>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="156">
+      <c r="B118" s="123">
         <v>43479</v>
       </c>
       <c r="C118" s="108" t="s">
@@ -9554,7 +9554,7 @@
       </c>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="156">
+      <c r="B119" s="123">
         <v>43480</v>
       </c>
       <c r="C119" s="108" t="s">
@@ -9571,7 +9571,7 @@
       </c>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="156">
+      <c r="B120" s="123">
         <v>43481</v>
       </c>
       <c r="C120" s="108" t="s">
@@ -9588,7 +9588,7 @@
       </c>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="156">
+      <c r="B121" s="123">
         <v>43482</v>
       </c>
       <c r="C121" s="108" t="s">
@@ -9615,7 +9615,7 @@
   <dimension ref="B3:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -9628,2417 +9628,2417 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="126" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="126" t="s">
         <v>827</v>
       </c>
-      <c r="E3" s="159" t="s">
+      <c r="E3" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="159" t="s">
+      <c r="F3" s="126" t="s">
         <v>828</v>
       </c>
-      <c r="G3" s="159" t="s">
+      <c r="G3" s="126" t="s">
         <v>829</v>
       </c>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="126" t="s">
         <v>830</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="126" t="s">
         <v>831</v>
       </c>
-      <c r="J3" s="159" t="s">
+      <c r="J3" s="126" t="s">
         <v>832</v>
       </c>
-      <c r="K3" s="159" t="s">
+      <c r="K3" s="126" t="s">
         <v>833</v>
       </c>
-      <c r="L3" s="159" t="s">
+      <c r="L3" s="126" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="160">
+      <c r="B4" s="127">
         <v>20180922</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="127" t="s">
         <v>835</v>
       </c>
-      <c r="E4" s="160" t="s">
+      <c r="E4" s="127" t="s">
         <v>836</v>
       </c>
-      <c r="F4" s="160" t="s">
+      <c r="F4" s="127" t="s">
         <v>837</v>
       </c>
-      <c r="G4" s="160" t="s">
+      <c r="G4" s="127" t="s">
         <v>838</v>
       </c>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="127" t="s">
         <v>839</v>
       </c>
-      <c r="I4" s="160" t="s">
+      <c r="I4" s="127" t="s">
         <v>840</v>
       </c>
-      <c r="J4" s="160" t="s">
+      <c r="J4" s="127" t="s">
         <v>841</v>
       </c>
-      <c r="K4" s="160" t="s">
+      <c r="K4" s="127" t="s">
         <v>842</v>
       </c>
-      <c r="L4" s="160" t="s">
+      <c r="L4" s="127" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="160">
+      <c r="B5" s="127">
         <v>20180922</v>
       </c>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="127" t="s">
         <v>988</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="127" t="s">
         <v>989</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="127" t="s">
         <v>990</v>
       </c>
-      <c r="G5" s="160" t="s">
+      <c r="G5" s="127" t="s">
         <v>991</v>
       </c>
-      <c r="H5" s="160" t="s">
+      <c r="H5" s="127" t="s">
         <v>992</v>
       </c>
-      <c r="I5" s="160" t="s">
+      <c r="I5" s="127" t="s">
         <v>993</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="127" t="s">
         <v>994</v>
       </c>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="127" t="s">
         <v>995</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="127" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="160">
+      <c r="B6" s="127">
         <v>20180922</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="127" t="s">
         <v>1141</v>
       </c>
-      <c r="E6" s="160" t="s">
+      <c r="E6" s="127" t="s">
         <v>1142</v>
       </c>
-      <c r="F6" s="160" t="s">
+      <c r="F6" s="127" t="s">
         <v>1143</v>
       </c>
-      <c r="G6" s="160" t="s">
+      <c r="G6" s="127" t="s">
         <v>1144</v>
       </c>
-      <c r="H6" s="160" t="s">
+      <c r="H6" s="127" t="s">
         <v>1145</v>
       </c>
-      <c r="I6" s="160" t="s">
+      <c r="I6" s="127" t="s">
         <v>1146</v>
       </c>
-      <c r="J6" s="160" t="s">
+      <c r="J6" s="127" t="s">
         <v>1147</v>
       </c>
-      <c r="K6" s="160" t="s">
+      <c r="K6" s="127" t="s">
         <v>1148</v>
       </c>
-      <c r="L6" s="160" t="s">
+      <c r="L6" s="127" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="160">
+      <c r="B7" s="127">
         <v>20180922</v>
       </c>
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="127" t="s">
         <v>1294</v>
       </c>
-      <c r="E7" s="160" t="s">
+      <c r="E7" s="127" t="s">
         <v>1295</v>
       </c>
-      <c r="F7" s="160" t="s">
+      <c r="F7" s="127" t="s">
         <v>1296</v>
       </c>
-      <c r="G7" s="160" t="s">
+      <c r="G7" s="127" t="s">
         <v>1297</v>
       </c>
-      <c r="H7" s="160" t="s">
+      <c r="H7" s="127" t="s">
         <v>1298</v>
       </c>
-      <c r="I7" s="160" t="s">
+      <c r="I7" s="127" t="s">
         <v>1299</v>
       </c>
-      <c r="J7" s="160" t="s">
+      <c r="J7" s="127" t="s">
         <v>1300</v>
       </c>
-      <c r="K7" s="160" t="s">
+      <c r="K7" s="127" t="s">
         <v>1301</v>
       </c>
-      <c r="L7" s="160" t="s">
+      <c r="L7" s="127" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="160">
+      <c r="B8" s="127">
         <v>20180923</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="127" t="s">
         <v>844</v>
       </c>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="127" t="s">
         <v>845</v>
       </c>
-      <c r="F8" s="160" t="s">
+      <c r="F8" s="127" t="s">
         <v>846</v>
       </c>
-      <c r="G8" s="160" t="s">
+      <c r="G8" s="127" t="s">
         <v>847</v>
       </c>
-      <c r="H8" s="160" t="s">
+      <c r="H8" s="127" t="s">
         <v>848</v>
       </c>
-      <c r="I8" s="160" t="s">
+      <c r="I8" s="127" t="s">
         <v>849</v>
       </c>
-      <c r="J8" s="160" t="s">
+      <c r="J8" s="127" t="s">
         <v>850</v>
       </c>
-      <c r="K8" s="160" t="s">
+      <c r="K8" s="127" t="s">
         <v>851</v>
       </c>
-      <c r="L8" s="160" t="s">
+      <c r="L8" s="127" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="160">
+      <c r="B9" s="127">
         <v>20180923</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="127" t="s">
         <v>997</v>
       </c>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="F9" s="160" t="s">
+      <c r="F9" s="127" t="s">
         <v>999</v>
       </c>
-      <c r="G9" s="160" t="s">
+      <c r="G9" s="127" t="s">
         <v>1000</v>
       </c>
-      <c r="H9" s="160" t="s">
+      <c r="H9" s="127" t="s">
         <v>1001</v>
       </c>
-      <c r="I9" s="160" t="s">
+      <c r="I9" s="127" t="s">
         <v>1002</v>
       </c>
-      <c r="J9" s="160" t="s">
+      <c r="J9" s="127" t="s">
         <v>1003</v>
       </c>
-      <c r="K9" s="160" t="s">
+      <c r="K9" s="127" t="s">
         <v>1004</v>
       </c>
-      <c r="L9" s="160" t="s">
+      <c r="L9" s="127" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="160">
+      <c r="B10" s="127">
         <v>20180923</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="127" t="s">
         <v>1150</v>
       </c>
-      <c r="E10" s="160" t="s">
+      <c r="E10" s="127" t="s">
         <v>1151</v>
       </c>
-      <c r="F10" s="160" t="s">
+      <c r="F10" s="127" t="s">
         <v>1152</v>
       </c>
-      <c r="G10" s="160" t="s">
+      <c r="G10" s="127" t="s">
         <v>1153</v>
       </c>
-      <c r="H10" s="160" t="s">
+      <c r="H10" s="127" t="s">
         <v>1154</v>
       </c>
-      <c r="I10" s="160" t="s">
+      <c r="I10" s="127" t="s">
         <v>1155</v>
       </c>
-      <c r="J10" s="160" t="s">
+      <c r="J10" s="127" t="s">
         <v>1156</v>
       </c>
-      <c r="K10" s="160" t="s">
+      <c r="K10" s="127" t="s">
         <v>1157</v>
       </c>
-      <c r="L10" s="160" t="s">
+      <c r="L10" s="127" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="160">
+      <c r="B11" s="127">
         <v>20180923</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="160" t="s">
+      <c r="D11" s="127" t="s">
         <v>1303</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="127" t="s">
         <v>1304</v>
       </c>
-      <c r="F11" s="160" t="s">
+      <c r="F11" s="127" t="s">
         <v>1305</v>
       </c>
-      <c r="G11" s="160" t="s">
+      <c r="G11" s="127" t="s">
         <v>1306</v>
       </c>
-      <c r="H11" s="160" t="s">
+      <c r="H11" s="127" t="s">
         <v>1307</v>
       </c>
-      <c r="I11" s="160" t="s">
+      <c r="I11" s="127" t="s">
         <v>1308</v>
       </c>
-      <c r="J11" s="160" t="s">
+      <c r="J11" s="127" t="s">
         <v>1309</v>
       </c>
-      <c r="K11" s="160" t="s">
+      <c r="K11" s="127" t="s">
         <v>1310</v>
       </c>
-      <c r="L11" s="160" t="s">
+      <c r="L11" s="127" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="160">
+      <c r="B12" s="127">
         <v>20180926</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="127" t="s">
         <v>853</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="127" t="s">
         <v>854</v>
       </c>
-      <c r="F12" s="160" t="s">
+      <c r="F12" s="127" t="s">
         <v>855</v>
       </c>
-      <c r="G12" s="160" t="s">
+      <c r="G12" s="127" t="s">
         <v>856</v>
       </c>
-      <c r="H12" s="160" t="s">
+      <c r="H12" s="127" t="s">
         <v>857</v>
       </c>
-      <c r="I12" s="160" t="s">
+      <c r="I12" s="127" t="s">
         <v>858</v>
       </c>
-      <c r="J12" s="160" t="s">
+      <c r="J12" s="127" t="s">
         <v>859</v>
       </c>
-      <c r="K12" s="160" t="s">
+      <c r="K12" s="127" t="s">
         <v>860</v>
       </c>
-      <c r="L12" s="160" t="s">
+      <c r="L12" s="127" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="160">
+      <c r="B13" s="127">
         <v>20180926</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="127" t="s">
         <v>1006</v>
       </c>
-      <c r="E13" s="160" t="s">
+      <c r="E13" s="127" t="s">
         <v>1007</v>
       </c>
-      <c r="F13" s="160" t="s">
+      <c r="F13" s="127" t="s">
         <v>1008</v>
       </c>
-      <c r="G13" s="160" t="s">
+      <c r="G13" s="127" t="s">
         <v>1009</v>
       </c>
-      <c r="H13" s="160" t="s">
+      <c r="H13" s="127" t="s">
         <v>1010</v>
       </c>
-      <c r="I13" s="160" t="s">
+      <c r="I13" s="127" t="s">
         <v>1011</v>
       </c>
-      <c r="J13" s="160" t="s">
+      <c r="J13" s="127" t="s">
         <v>1012</v>
       </c>
-      <c r="K13" s="160" t="s">
+      <c r="K13" s="127" t="s">
         <v>1013</v>
       </c>
-      <c r="L13" s="160" t="s">
+      <c r="L13" s="127" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="160">
+      <c r="B14" s="127">
         <v>20180926</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D14" s="160" t="s">
+      <c r="D14" s="127" t="s">
         <v>1159</v>
       </c>
-      <c r="E14" s="160" t="s">
+      <c r="E14" s="127" t="s">
         <v>1160</v>
       </c>
-      <c r="F14" s="160" t="s">
+      <c r="F14" s="127" t="s">
         <v>1161</v>
       </c>
-      <c r="G14" s="160" t="s">
+      <c r="G14" s="127" t="s">
         <v>1162</v>
       </c>
-      <c r="H14" s="160" t="s">
+      <c r="H14" s="127" t="s">
         <v>1163</v>
       </c>
-      <c r="I14" s="160" t="s">
+      <c r="I14" s="127" t="s">
         <v>1164</v>
       </c>
-      <c r="J14" s="160" t="s">
+      <c r="J14" s="127" t="s">
         <v>1165</v>
       </c>
-      <c r="K14" s="160" t="s">
+      <c r="K14" s="127" t="s">
         <v>1166</v>
       </c>
-      <c r="L14" s="160" t="s">
+      <c r="L14" s="127" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="160">
+      <c r="B15" s="127">
         <v>20180926</v>
       </c>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="127" t="s">
         <v>1312</v>
       </c>
-      <c r="E15" s="160" t="s">
+      <c r="E15" s="127" t="s">
         <v>1313</v>
       </c>
-      <c r="F15" s="160" t="s">
+      <c r="F15" s="127" t="s">
         <v>1314</v>
       </c>
-      <c r="G15" s="160" t="s">
+      <c r="G15" s="127" t="s">
         <v>1315</v>
       </c>
-      <c r="H15" s="160" t="s">
+      <c r="H15" s="127" t="s">
         <v>1316</v>
       </c>
-      <c r="I15" s="160" t="s">
+      <c r="I15" s="127" t="s">
         <v>1317</v>
       </c>
-      <c r="J15" s="160" t="s">
+      <c r="J15" s="127" t="s">
         <v>1318</v>
       </c>
-      <c r="K15" s="160" t="s">
+      <c r="K15" s="127" t="s">
         <v>1319</v>
       </c>
-      <c r="L15" s="160" t="s">
+      <c r="L15" s="127" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="160">
+      <c r="B16" s="127">
         <v>20180929</v>
       </c>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="127" t="s">
         <v>862</v>
       </c>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="127" t="s">
         <v>863</v>
       </c>
-      <c r="F16" s="160" t="s">
+      <c r="F16" s="127" t="s">
         <v>864</v>
       </c>
-      <c r="G16" s="160" t="s">
+      <c r="G16" s="127" t="s">
         <v>865</v>
       </c>
-      <c r="H16" s="160" t="s">
+      <c r="H16" s="127" t="s">
         <v>866</v>
       </c>
-      <c r="I16" s="160" t="s">
+      <c r="I16" s="127" t="s">
         <v>867</v>
       </c>
-      <c r="J16" s="160" t="s">
+      <c r="J16" s="127" t="s">
         <v>868</v>
       </c>
-      <c r="K16" s="160" t="s">
+      <c r="K16" s="127" t="s">
         <v>869</v>
       </c>
-      <c r="L16" s="160" t="s">
+      <c r="L16" s="127" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="160">
+      <c r="B17" s="127">
         <v>20180929</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="127" t="s">
         <v>1015</v>
       </c>
-      <c r="E17" s="160" t="s">
+      <c r="E17" s="127" t="s">
         <v>1016</v>
       </c>
-      <c r="F17" s="160" t="s">
+      <c r="F17" s="127" t="s">
         <v>1017</v>
       </c>
-      <c r="G17" s="160" t="s">
+      <c r="G17" s="127" t="s">
         <v>1018</v>
       </c>
-      <c r="H17" s="160" t="s">
+      <c r="H17" s="127" t="s">
         <v>1019</v>
       </c>
-      <c r="I17" s="160" t="s">
+      <c r="I17" s="127" t="s">
         <v>1020</v>
       </c>
-      <c r="J17" s="160" t="s">
+      <c r="J17" s="127" t="s">
         <v>1021</v>
       </c>
-      <c r="K17" s="160" t="s">
+      <c r="K17" s="127" t="s">
         <v>1022</v>
       </c>
-      <c r="L17" s="160" t="s">
+      <c r="L17" s="127" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="160">
+      <c r="B18" s="127">
         <v>20180929</v>
       </c>
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="160" t="s">
+      <c r="D18" s="127" t="s">
         <v>1168</v>
       </c>
-      <c r="E18" s="160" t="s">
+      <c r="E18" s="127" t="s">
         <v>1169</v>
       </c>
-      <c r="F18" s="160" t="s">
+      <c r="F18" s="127" t="s">
         <v>1170</v>
       </c>
-      <c r="G18" s="160" t="s">
+      <c r="G18" s="127" t="s">
         <v>1171</v>
       </c>
-      <c r="H18" s="160" t="s">
+      <c r="H18" s="127" t="s">
         <v>1172</v>
       </c>
-      <c r="I18" s="160" t="s">
+      <c r="I18" s="127" t="s">
         <v>1173</v>
       </c>
-      <c r="J18" s="160" t="s">
+      <c r="J18" s="127" t="s">
         <v>1174</v>
       </c>
-      <c r="K18" s="160" t="s">
+      <c r="K18" s="127" t="s">
         <v>1175</v>
       </c>
-      <c r="L18" s="160" t="s">
+      <c r="L18" s="127" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="160">
+      <c r="B19" s="127">
         <v>20180929</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="127" t="s">
         <v>1321</v>
       </c>
-      <c r="E19" s="160" t="s">
+      <c r="E19" s="127" t="s">
         <v>1322</v>
       </c>
-      <c r="F19" s="160" t="s">
+      <c r="F19" s="127" t="s">
         <v>1323</v>
       </c>
-      <c r="G19" s="160" t="s">
+      <c r="G19" s="127" t="s">
         <v>1324</v>
       </c>
-      <c r="H19" s="160" t="s">
+      <c r="H19" s="127" t="s">
         <v>1325</v>
       </c>
-      <c r="I19" s="160" t="s">
+      <c r="I19" s="127" t="s">
         <v>1326</v>
       </c>
-      <c r="J19" s="160" t="s">
+      <c r="J19" s="127" t="s">
         <v>1327</v>
       </c>
-      <c r="K19" s="160" t="s">
+      <c r="K19" s="127" t="s">
         <v>1328</v>
       </c>
-      <c r="L19" s="160" t="s">
+      <c r="L19" s="127" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="160">
+      <c r="B20" s="127">
         <v>20181003</v>
       </c>
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="160" t="s">
+      <c r="D20" s="127" t="s">
         <v>871</v>
       </c>
-      <c r="E20" s="160" t="s">
+      <c r="E20" s="127" t="s">
         <v>872</v>
       </c>
-      <c r="F20" s="160" t="s">
+      <c r="F20" s="127" t="s">
         <v>873</v>
       </c>
-      <c r="G20" s="160" t="s">
+      <c r="G20" s="127" t="s">
         <v>874</v>
       </c>
-      <c r="H20" s="160" t="s">
+      <c r="H20" s="127" t="s">
         <v>875</v>
       </c>
-      <c r="I20" s="160" t="s">
+      <c r="I20" s="127" t="s">
         <v>876</v>
       </c>
-      <c r="J20" s="160" t="s">
+      <c r="J20" s="127" t="s">
         <v>877</v>
       </c>
-      <c r="K20" s="160" t="s">
+      <c r="K20" s="127" t="s">
         <v>878</v>
       </c>
-      <c r="L20" s="160" t="s">
+      <c r="L20" s="127" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="160">
+      <c r="B21" s="127">
         <v>20181003</v>
       </c>
-      <c r="C21" s="160" t="s">
+      <c r="C21" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D21" s="160" t="s">
+      <c r="D21" s="127" t="s">
         <v>1024</v>
       </c>
-      <c r="E21" s="160" t="s">
+      <c r="E21" s="127" t="s">
         <v>1025</v>
       </c>
-      <c r="F21" s="160" t="s">
+      <c r="F21" s="127" t="s">
         <v>1026</v>
       </c>
-      <c r="G21" s="160" t="s">
+      <c r="G21" s="127" t="s">
         <v>1027</v>
       </c>
-      <c r="H21" s="160" t="s">
+      <c r="H21" s="127" t="s">
         <v>1028</v>
       </c>
-      <c r="I21" s="160" t="s">
+      <c r="I21" s="127" t="s">
         <v>1029</v>
       </c>
-      <c r="J21" s="160" t="s">
+      <c r="J21" s="127" t="s">
         <v>1030</v>
       </c>
-      <c r="K21" s="160" t="s">
+      <c r="K21" s="127" t="s">
         <v>1031</v>
       </c>
-      <c r="L21" s="160" t="s">
+      <c r="L21" s="127" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="160">
+      <c r="B22" s="127">
         <v>20181003</v>
       </c>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D22" s="160" t="s">
+      <c r="D22" s="127" t="s">
         <v>1177</v>
       </c>
-      <c r="E22" s="160" t="s">
+      <c r="E22" s="127" t="s">
         <v>1178</v>
       </c>
-      <c r="F22" s="160" t="s">
+      <c r="F22" s="127" t="s">
         <v>1179</v>
       </c>
-      <c r="G22" s="160" t="s">
+      <c r="G22" s="127" t="s">
         <v>1180</v>
       </c>
-      <c r="H22" s="160" t="s">
+      <c r="H22" s="127" t="s">
         <v>1181</v>
       </c>
-      <c r="I22" s="160" t="s">
+      <c r="I22" s="127" t="s">
         <v>1182</v>
       </c>
-      <c r="J22" s="160" t="s">
+      <c r="J22" s="127" t="s">
         <v>1183</v>
       </c>
-      <c r="K22" s="160" t="s">
+      <c r="K22" s="127" t="s">
         <v>1184</v>
       </c>
-      <c r="L22" s="160" t="s">
+      <c r="L22" s="127" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="160">
+      <c r="B23" s="127">
         <v>20181003</v>
       </c>
-      <c r="C23" s="160" t="s">
+      <c r="C23" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D23" s="160" t="s">
+      <c r="D23" s="127" t="s">
         <v>1330</v>
       </c>
-      <c r="E23" s="160" t="s">
+      <c r="E23" s="127" t="s">
         <v>1331</v>
       </c>
-      <c r="F23" s="160" t="s">
+      <c r="F23" s="127" t="s">
         <v>1332</v>
       </c>
-      <c r="G23" s="160" t="s">
+      <c r="G23" s="127" t="s">
         <v>1333</v>
       </c>
-      <c r="H23" s="160" t="s">
+      <c r="H23" s="127" t="s">
         <v>1334</v>
       </c>
-      <c r="I23" s="160" t="s">
+      <c r="I23" s="127" t="s">
         <v>1335</v>
       </c>
-      <c r="J23" s="160" t="s">
+      <c r="J23" s="127" t="s">
         <v>1336</v>
       </c>
-      <c r="K23" s="160" t="s">
+      <c r="K23" s="127" t="s">
         <v>1337</v>
       </c>
-      <c r="L23" s="160" t="s">
+      <c r="L23" s="127" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="160">
+      <c r="B24" s="127">
         <v>20181006</v>
       </c>
-      <c r="C24" s="160" t="s">
+      <c r="C24" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="160" t="s">
+      <c r="D24" s="127" t="s">
         <v>880</v>
       </c>
-      <c r="E24" s="160" t="s">
+      <c r="E24" s="127" t="s">
         <v>881</v>
       </c>
-      <c r="F24" s="160" t="s">
+      <c r="F24" s="127" t="s">
         <v>882</v>
       </c>
-      <c r="G24" s="160" t="s">
+      <c r="G24" s="127" t="s">
         <v>883</v>
       </c>
-      <c r="H24" s="160" t="s">
+      <c r="H24" s="127" t="s">
         <v>884</v>
       </c>
-      <c r="I24" s="160" t="s">
+      <c r="I24" s="127" t="s">
         <v>885</v>
       </c>
-      <c r="J24" s="160" t="s">
+      <c r="J24" s="127" t="s">
         <v>886</v>
       </c>
-      <c r="K24" s="160" t="s">
+      <c r="K24" s="127" t="s">
         <v>887</v>
       </c>
-      <c r="L24" s="160" t="s">
+      <c r="L24" s="127" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="160">
+      <c r="B25" s="127">
         <v>20181006</v>
       </c>
-      <c r="C25" s="160" t="s">
+      <c r="C25" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="160" t="s">
+      <c r="D25" s="127" t="s">
         <v>1033</v>
       </c>
-      <c r="E25" s="160" t="s">
+      <c r="E25" s="127" t="s">
         <v>1034</v>
       </c>
-      <c r="F25" s="160" t="s">
+      <c r="F25" s="127" t="s">
         <v>1035</v>
       </c>
-      <c r="G25" s="160" t="s">
+      <c r="G25" s="127" t="s">
         <v>1036</v>
       </c>
-      <c r="H25" s="160" t="s">
+      <c r="H25" s="127" t="s">
         <v>1037</v>
       </c>
-      <c r="I25" s="160" t="s">
+      <c r="I25" s="127" t="s">
         <v>1038</v>
       </c>
-      <c r="J25" s="160" t="s">
+      <c r="J25" s="127" t="s">
         <v>1039</v>
       </c>
-      <c r="K25" s="160" t="s">
+      <c r="K25" s="127" t="s">
         <v>1040</v>
       </c>
-      <c r="L25" s="160" t="s">
+      <c r="L25" s="127" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="160">
+      <c r="B26" s="127">
         <v>20181006</v>
       </c>
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D26" s="160" t="s">
+      <c r="D26" s="127" t="s">
         <v>1186</v>
       </c>
-      <c r="E26" s="160" t="s">
+      <c r="E26" s="127" t="s">
         <v>1187</v>
       </c>
-      <c r="F26" s="160" t="s">
+      <c r="F26" s="127" t="s">
         <v>1188</v>
       </c>
-      <c r="G26" s="160" t="s">
+      <c r="G26" s="127" t="s">
         <v>1189</v>
       </c>
-      <c r="H26" s="160" t="s">
+      <c r="H26" s="127" t="s">
         <v>1190</v>
       </c>
-      <c r="I26" s="160" t="s">
+      <c r="I26" s="127" t="s">
         <v>1191</v>
       </c>
-      <c r="J26" s="160" t="s">
+      <c r="J26" s="127" t="s">
         <v>1192</v>
       </c>
-      <c r="K26" s="160" t="s">
+      <c r="K26" s="127" t="s">
         <v>1193</v>
       </c>
-      <c r="L26" s="160" t="s">
+      <c r="L26" s="127" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="160">
+      <c r="B27" s="127">
         <v>20181006</v>
       </c>
-      <c r="C27" s="160" t="s">
+      <c r="C27" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="127" t="s">
         <v>1339</v>
       </c>
-      <c r="E27" s="160" t="s">
+      <c r="E27" s="127" t="s">
         <v>1340</v>
       </c>
-      <c r="F27" s="160" t="s">
+      <c r="F27" s="127" t="s">
         <v>1341</v>
       </c>
-      <c r="G27" s="160" t="s">
+      <c r="G27" s="127" t="s">
         <v>1342</v>
       </c>
-      <c r="H27" s="160" t="s">
+      <c r="H27" s="127" t="s">
         <v>1343</v>
       </c>
-      <c r="I27" s="160" t="s">
+      <c r="I27" s="127" t="s">
         <v>1344</v>
       </c>
-      <c r="J27" s="160" t="s">
+      <c r="J27" s="127" t="s">
         <v>1345</v>
       </c>
-      <c r="K27" s="160" t="s">
+      <c r="K27" s="127" t="s">
         <v>1346</v>
       </c>
-      <c r="L27" s="160" t="s">
+      <c r="L27" s="127" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="160">
+      <c r="B28" s="127">
         <v>20181010</v>
       </c>
-      <c r="C28" s="160" t="s">
+      <c r="C28" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="160" t="s">
+      <c r="D28" s="127" t="s">
         <v>889</v>
       </c>
-      <c r="E28" s="160" t="s">
+      <c r="E28" s="127" t="s">
         <v>890</v>
       </c>
-      <c r="F28" s="160" t="s">
+      <c r="F28" s="127" t="s">
         <v>891</v>
       </c>
-      <c r="G28" s="160" t="s">
+      <c r="G28" s="127" t="s">
         <v>892</v>
       </c>
-      <c r="H28" s="160" t="s">
+      <c r="H28" s="127" t="s">
         <v>893</v>
       </c>
-      <c r="I28" s="160" t="s">
+      <c r="I28" s="127" t="s">
         <v>894</v>
       </c>
-      <c r="J28" s="160" t="s">
+      <c r="J28" s="127" t="s">
         <v>895</v>
       </c>
-      <c r="K28" s="160" t="s">
+      <c r="K28" s="127" t="s">
         <v>896</v>
       </c>
-      <c r="L28" s="160" t="s">
+      <c r="L28" s="127" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="160">
+      <c r="B29" s="127">
         <v>20181010</v>
       </c>
-      <c r="C29" s="160" t="s">
+      <c r="C29" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D29" s="160" t="s">
+      <c r="D29" s="127" t="s">
         <v>1042</v>
       </c>
-      <c r="E29" s="160" t="s">
+      <c r="E29" s="127" t="s">
         <v>1043</v>
       </c>
-      <c r="F29" s="160" t="s">
+      <c r="F29" s="127" t="s">
         <v>1044</v>
       </c>
-      <c r="G29" s="160" t="s">
+      <c r="G29" s="127" t="s">
         <v>1045</v>
       </c>
-      <c r="H29" s="160" t="s">
+      <c r="H29" s="127" t="s">
         <v>1046</v>
       </c>
-      <c r="I29" s="160" t="s">
+      <c r="I29" s="127" t="s">
         <v>1047</v>
       </c>
-      <c r="J29" s="160" t="s">
+      <c r="J29" s="127" t="s">
         <v>1048</v>
       </c>
-      <c r="K29" s="160" t="s">
+      <c r="K29" s="127" t="s">
         <v>1049</v>
       </c>
-      <c r="L29" s="160" t="s">
+      <c r="L29" s="127" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="160">
+      <c r="B30" s="127">
         <v>20181010</v>
       </c>
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D30" s="160" t="s">
+      <c r="D30" s="127" t="s">
         <v>1195</v>
       </c>
-      <c r="E30" s="160" t="s">
+      <c r="E30" s="127" t="s">
         <v>1196</v>
       </c>
-      <c r="F30" s="160" t="s">
+      <c r="F30" s="127" t="s">
         <v>1197</v>
       </c>
-      <c r="G30" s="160" t="s">
+      <c r="G30" s="127" t="s">
         <v>1198</v>
       </c>
-      <c r="H30" s="160" t="s">
+      <c r="H30" s="127" t="s">
         <v>1199</v>
       </c>
-      <c r="I30" s="160" t="s">
+      <c r="I30" s="127" t="s">
         <v>1200</v>
       </c>
-      <c r="J30" s="160" t="s">
+      <c r="J30" s="127" t="s">
         <v>1201</v>
       </c>
-      <c r="K30" s="160" t="s">
+      <c r="K30" s="127" t="s">
         <v>1202</v>
       </c>
-      <c r="L30" s="160" t="s">
+      <c r="L30" s="127" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="160">
+      <c r="B31" s="127">
         <v>20181010</v>
       </c>
-      <c r="C31" s="160" t="s">
+      <c r="C31" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D31" s="160" t="s">
+      <c r="D31" s="127" t="s">
         <v>1348</v>
       </c>
-      <c r="E31" s="160" t="s">
+      <c r="E31" s="127" t="s">
         <v>1349</v>
       </c>
-      <c r="F31" s="160" t="s">
+      <c r="F31" s="127" t="s">
         <v>1350</v>
       </c>
-      <c r="G31" s="160" t="s">
+      <c r="G31" s="127" t="s">
         <v>1351</v>
       </c>
-      <c r="H31" s="160" t="s">
+      <c r="H31" s="127" t="s">
         <v>1352</v>
       </c>
-      <c r="I31" s="160" t="s">
+      <c r="I31" s="127" t="s">
         <v>1353</v>
       </c>
-      <c r="J31" s="160" t="s">
+      <c r="J31" s="127" t="s">
         <v>1354</v>
       </c>
-      <c r="K31" s="160" t="s">
+      <c r="K31" s="127" t="s">
         <v>1355</v>
       </c>
-      <c r="L31" s="160" t="s">
+      <c r="L31" s="127" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="160">
+      <c r="B32" s="127">
         <v>20181013</v>
       </c>
-      <c r="C32" s="160" t="s">
+      <c r="C32" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="160" t="s">
+      <c r="D32" s="127" t="s">
         <v>898</v>
       </c>
-      <c r="E32" s="160" t="s">
+      <c r="E32" s="127" t="s">
         <v>899</v>
       </c>
-      <c r="F32" s="160" t="s">
+      <c r="F32" s="127" t="s">
         <v>900</v>
       </c>
-      <c r="G32" s="160" t="s">
+      <c r="G32" s="127" t="s">
         <v>901</v>
       </c>
-      <c r="H32" s="160" t="s">
+      <c r="H32" s="127" t="s">
         <v>902</v>
       </c>
-      <c r="I32" s="160" t="s">
+      <c r="I32" s="127" t="s">
         <v>903</v>
       </c>
-      <c r="J32" s="160" t="s">
+      <c r="J32" s="127" t="s">
         <v>904</v>
       </c>
-      <c r="K32" s="160" t="s">
+      <c r="K32" s="127" t="s">
         <v>905</v>
       </c>
-      <c r="L32" s="160" t="s">
+      <c r="L32" s="127" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="160">
+      <c r="B33" s="127">
         <v>20181013</v>
       </c>
-      <c r="C33" s="160" t="s">
+      <c r="C33" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="160" t="s">
+      <c r="D33" s="127" t="s">
         <v>1051</v>
       </c>
-      <c r="E33" s="160" t="s">
+      <c r="E33" s="127" t="s">
         <v>1052</v>
       </c>
-      <c r="F33" s="160" t="s">
+      <c r="F33" s="127" t="s">
         <v>1053</v>
       </c>
-      <c r="G33" s="160" t="s">
+      <c r="G33" s="127" t="s">
         <v>1054</v>
       </c>
-      <c r="H33" s="160" t="s">
+      <c r="H33" s="127" t="s">
         <v>1055</v>
       </c>
-      <c r="I33" s="160" t="s">
+      <c r="I33" s="127" t="s">
         <v>1056</v>
       </c>
-      <c r="J33" s="160" t="s">
+      <c r="J33" s="127" t="s">
         <v>1057</v>
       </c>
-      <c r="K33" s="160" t="s">
+      <c r="K33" s="127" t="s">
         <v>1058</v>
       </c>
-      <c r="L33" s="160" t="s">
+      <c r="L33" s="127" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="160">
+      <c r="B34" s="127">
         <v>20181013</v>
       </c>
-      <c r="C34" s="160" t="s">
+      <c r="C34" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="127" t="s">
         <v>1204</v>
       </c>
-      <c r="E34" s="160" t="s">
+      <c r="E34" s="127" t="s">
         <v>1205</v>
       </c>
-      <c r="F34" s="160" t="s">
+      <c r="F34" s="127" t="s">
         <v>1206</v>
       </c>
-      <c r="G34" s="160" t="s">
+      <c r="G34" s="127" t="s">
         <v>1207</v>
       </c>
-      <c r="H34" s="160" t="s">
+      <c r="H34" s="127" t="s">
         <v>1208</v>
       </c>
-      <c r="I34" s="160" t="s">
+      <c r="I34" s="127" t="s">
         <v>1209</v>
       </c>
-      <c r="J34" s="160" t="s">
+      <c r="J34" s="127" t="s">
         <v>1210</v>
       </c>
-      <c r="K34" s="160" t="s">
+      <c r="K34" s="127" t="s">
         <v>1211</v>
       </c>
-      <c r="L34" s="160" t="s">
+      <c r="L34" s="127" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="160">
+      <c r="B35" s="127">
         <v>20181013</v>
       </c>
-      <c r="C35" s="160" t="s">
+      <c r="C35" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D35" s="160" t="s">
+      <c r="D35" s="127" t="s">
         <v>1357</v>
       </c>
-      <c r="E35" s="160" t="s">
+      <c r="E35" s="127" t="s">
         <v>1358</v>
       </c>
-      <c r="F35" s="160" t="s">
+      <c r="F35" s="127" t="s">
         <v>1359</v>
       </c>
-      <c r="G35" s="160" t="s">
+      <c r="G35" s="127" t="s">
         <v>1360</v>
       </c>
-      <c r="H35" s="160" t="s">
+      <c r="H35" s="127" t="s">
         <v>1361</v>
       </c>
-      <c r="I35" s="160" t="s">
+      <c r="I35" s="127" t="s">
         <v>1362</v>
       </c>
-      <c r="J35" s="160" t="s">
+      <c r="J35" s="127" t="s">
         <v>1363</v>
       </c>
-      <c r="K35" s="160" t="s">
+      <c r="K35" s="127" t="s">
         <v>1364</v>
       </c>
-      <c r="L35" s="160" t="s">
+      <c r="L35" s="127" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="160">
+      <c r="B36" s="127">
         <v>20181017</v>
       </c>
-      <c r="C36" s="160" t="s">
+      <c r="C36" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D36" s="160" t="s">
+      <c r="D36" s="127" t="s">
         <v>907</v>
       </c>
-      <c r="E36" s="160" t="s">
+      <c r="E36" s="127" t="s">
         <v>908</v>
       </c>
-      <c r="F36" s="160" t="s">
+      <c r="F36" s="127" t="s">
         <v>909</v>
       </c>
-      <c r="G36" s="160" t="s">
+      <c r="G36" s="127" t="s">
         <v>910</v>
       </c>
-      <c r="H36" s="160" t="s">
+      <c r="H36" s="127" t="s">
         <v>911</v>
       </c>
-      <c r="I36" s="160" t="s">
+      <c r="I36" s="127" t="s">
         <v>912</v>
       </c>
-      <c r="J36" s="160" t="s">
+      <c r="J36" s="127" t="s">
         <v>913</v>
       </c>
-      <c r="K36" s="160" t="s">
+      <c r="K36" s="127" t="s">
         <v>914</v>
       </c>
-      <c r="L36" s="160" t="s">
+      <c r="L36" s="127" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="160">
+      <c r="B37" s="127">
         <v>20181017</v>
       </c>
-      <c r="C37" s="160" t="s">
+      <c r="C37" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D37" s="160" t="s">
+      <c r="D37" s="127" t="s">
         <v>1060</v>
       </c>
-      <c r="E37" s="160" t="s">
+      <c r="E37" s="127" t="s">
         <v>1061</v>
       </c>
-      <c r="F37" s="160" t="s">
+      <c r="F37" s="127" t="s">
         <v>1062</v>
       </c>
-      <c r="G37" s="160" t="s">
+      <c r="G37" s="127" t="s">
         <v>1063</v>
       </c>
-      <c r="H37" s="160" t="s">
+      <c r="H37" s="127" t="s">
         <v>1064</v>
       </c>
-      <c r="I37" s="160" t="s">
+      <c r="I37" s="127" t="s">
         <v>1065</v>
       </c>
-      <c r="J37" s="160" t="s">
+      <c r="J37" s="127" t="s">
         <v>1066</v>
       </c>
-      <c r="K37" s="160" t="s">
+      <c r="K37" s="127" t="s">
         <v>1067</v>
       </c>
-      <c r="L37" s="160" t="s">
+      <c r="L37" s="127" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="160">
+      <c r="B38" s="127">
         <v>20181017</v>
       </c>
-      <c r="C38" s="160" t="s">
+      <c r="C38" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D38" s="160" t="s">
+      <c r="D38" s="127" t="s">
         <v>1213</v>
       </c>
-      <c r="E38" s="160" t="s">
+      <c r="E38" s="127" t="s">
         <v>1214</v>
       </c>
-      <c r="F38" s="160" t="s">
+      <c r="F38" s="127" t="s">
         <v>1215</v>
       </c>
-      <c r="G38" s="160" t="s">
+      <c r="G38" s="127" t="s">
         <v>1216</v>
       </c>
-      <c r="H38" s="160" t="s">
+      <c r="H38" s="127" t="s">
         <v>1217</v>
       </c>
-      <c r="I38" s="160" t="s">
+      <c r="I38" s="127" t="s">
         <v>1218</v>
       </c>
-      <c r="J38" s="160" t="s">
+      <c r="J38" s="127" t="s">
         <v>1219</v>
       </c>
-      <c r="K38" s="160" t="s">
+      <c r="K38" s="127" t="s">
         <v>1220</v>
       </c>
-      <c r="L38" s="160" t="s">
+      <c r="L38" s="127" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="160">
+      <c r="B39" s="127">
         <v>20181017</v>
       </c>
-      <c r="C39" s="160" t="s">
+      <c r="C39" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D39" s="160" t="s">
+      <c r="D39" s="127" t="s">
         <v>1366</v>
       </c>
-      <c r="E39" s="160" t="s">
+      <c r="E39" s="127" t="s">
         <v>1367</v>
       </c>
-      <c r="F39" s="160" t="s">
+      <c r="F39" s="127" t="s">
         <v>1368</v>
       </c>
-      <c r="G39" s="160" t="s">
+      <c r="G39" s="127" t="s">
         <v>1369</v>
       </c>
-      <c r="H39" s="160" t="s">
+      <c r="H39" s="127" t="s">
         <v>1370</v>
       </c>
-      <c r="I39" s="160" t="s">
+      <c r="I39" s="127" t="s">
         <v>1371</v>
       </c>
-      <c r="J39" s="160" t="s">
+      <c r="J39" s="127" t="s">
         <v>1372</v>
       </c>
-      <c r="K39" s="160" t="s">
+      <c r="K39" s="127" t="s">
         <v>1373</v>
       </c>
-      <c r="L39" s="160" t="s">
+      <c r="L39" s="127" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="160">
+      <c r="B40" s="127">
         <v>20181020</v>
       </c>
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D40" s="160" t="s">
+      <c r="D40" s="127" t="s">
         <v>916</v>
       </c>
-      <c r="E40" s="160" t="s">
+      <c r="E40" s="127" t="s">
         <v>917</v>
       </c>
-      <c r="F40" s="160" t="s">
+      <c r="F40" s="127" t="s">
         <v>918</v>
       </c>
-      <c r="G40" s="160" t="s">
+      <c r="G40" s="127" t="s">
         <v>919</v>
       </c>
-      <c r="H40" s="160" t="s">
+      <c r="H40" s="127" t="s">
         <v>920</v>
       </c>
-      <c r="I40" s="160" t="s">
+      <c r="I40" s="127" t="s">
         <v>921</v>
       </c>
-      <c r="J40" s="160" t="s">
+      <c r="J40" s="127" t="s">
         <v>922</v>
       </c>
-      <c r="K40" s="160" t="s">
+      <c r="K40" s="127" t="s">
         <v>923</v>
       </c>
-      <c r="L40" s="160" t="s">
+      <c r="L40" s="127" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="160">
+      <c r="B41" s="127">
         <v>20181020</v>
       </c>
-      <c r="C41" s="160" t="s">
+      <c r="C41" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D41" s="160" t="s">
+      <c r="D41" s="127" t="s">
         <v>1069</v>
       </c>
-      <c r="E41" s="160" t="s">
+      <c r="E41" s="127" t="s">
         <v>1070</v>
       </c>
-      <c r="F41" s="160" t="s">
+      <c r="F41" s="127" t="s">
         <v>1071</v>
       </c>
-      <c r="G41" s="160" t="s">
+      <c r="G41" s="127" t="s">
         <v>1072</v>
       </c>
-      <c r="H41" s="160" t="s">
+      <c r="H41" s="127" t="s">
         <v>1073</v>
       </c>
-      <c r="I41" s="160" t="s">
+      <c r="I41" s="127" t="s">
         <v>1074</v>
       </c>
-      <c r="J41" s="160" t="s">
+      <c r="J41" s="127" t="s">
         <v>1075</v>
       </c>
-      <c r="K41" s="160" t="s">
+      <c r="K41" s="127" t="s">
         <v>1076</v>
       </c>
-      <c r="L41" s="160" t="s">
+      <c r="L41" s="127" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="160">
+      <c r="B42" s="127">
         <v>20181020</v>
       </c>
-      <c r="C42" s="160" t="s">
+      <c r="C42" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D42" s="160" t="s">
+      <c r="D42" s="127" t="s">
         <v>1222</v>
       </c>
-      <c r="E42" s="160" t="s">
+      <c r="E42" s="127" t="s">
         <v>1223</v>
       </c>
-      <c r="F42" s="160" t="s">
+      <c r="F42" s="127" t="s">
         <v>1224</v>
       </c>
-      <c r="G42" s="160" t="s">
+      <c r="G42" s="127" t="s">
         <v>1225</v>
       </c>
-      <c r="H42" s="160" t="s">
+      <c r="H42" s="127" t="s">
         <v>1226</v>
       </c>
-      <c r="I42" s="160" t="s">
+      <c r="I42" s="127" t="s">
         <v>1227</v>
       </c>
-      <c r="J42" s="160" t="s">
+      <c r="J42" s="127" t="s">
         <v>1228</v>
       </c>
-      <c r="K42" s="160" t="s">
+      <c r="K42" s="127" t="s">
         <v>1229</v>
       </c>
-      <c r="L42" s="160" t="s">
+      <c r="L42" s="127" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="160">
+      <c r="B43" s="127">
         <v>20181020</v>
       </c>
-      <c r="C43" s="160" t="s">
+      <c r="C43" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D43" s="160" t="s">
+      <c r="D43" s="127" t="s">
         <v>1375</v>
       </c>
-      <c r="E43" s="160" t="s">
+      <c r="E43" s="127" t="s">
         <v>1376</v>
       </c>
-      <c r="F43" s="160" t="s">
+      <c r="F43" s="127" t="s">
         <v>1377</v>
       </c>
-      <c r="G43" s="160" t="s">
+      <c r="G43" s="127" t="s">
         <v>1378</v>
       </c>
-      <c r="H43" s="160" t="s">
+      <c r="H43" s="127" t="s">
         <v>1379</v>
       </c>
-      <c r="I43" s="160" t="s">
+      <c r="I43" s="127" t="s">
         <v>1380</v>
       </c>
-      <c r="J43" s="160" t="s">
+      <c r="J43" s="127" t="s">
         <v>1381</v>
       </c>
-      <c r="K43" s="160" t="s">
+      <c r="K43" s="127" t="s">
         <v>1382</v>
       </c>
-      <c r="L43" s="160" t="s">
+      <c r="L43" s="127" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="160">
+      <c r="B44" s="127">
         <v>20181027</v>
       </c>
-      <c r="C44" s="160" t="s">
+      <c r="C44" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D44" s="160" t="s">
+      <c r="D44" s="127" t="s">
         <v>925</v>
       </c>
-      <c r="E44" s="160" t="s">
+      <c r="E44" s="127" t="s">
         <v>926</v>
       </c>
-      <c r="F44" s="160" t="s">
+      <c r="F44" s="127" t="s">
         <v>927</v>
       </c>
-      <c r="G44" s="160" t="s">
+      <c r="G44" s="127" t="s">
         <v>928</v>
       </c>
-      <c r="H44" s="160" t="s">
+      <c r="H44" s="127" t="s">
         <v>929</v>
       </c>
-      <c r="I44" s="160" t="s">
+      <c r="I44" s="127" t="s">
         <v>930</v>
       </c>
-      <c r="J44" s="160" t="s">
+      <c r="J44" s="127" t="s">
         <v>931</v>
       </c>
-      <c r="K44" s="160" t="s">
+      <c r="K44" s="127" t="s">
         <v>932</v>
       </c>
-      <c r="L44" s="160" t="s">
+      <c r="L44" s="127" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="160">
+      <c r="B45" s="127">
         <v>20181027</v>
       </c>
-      <c r="C45" s="160" t="s">
+      <c r="C45" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D45" s="160" t="s">
+      <c r="D45" s="127" t="s">
         <v>1078</v>
       </c>
-      <c r="E45" s="160" t="s">
+      <c r="E45" s="127" t="s">
         <v>1079</v>
       </c>
-      <c r="F45" s="160" t="s">
+      <c r="F45" s="127" t="s">
         <v>1080</v>
       </c>
-      <c r="G45" s="160" t="s">
+      <c r="G45" s="127" t="s">
         <v>1081</v>
       </c>
-      <c r="H45" s="160" t="s">
+      <c r="H45" s="127" t="s">
         <v>1082</v>
       </c>
-      <c r="I45" s="160" t="s">
+      <c r="I45" s="127" t="s">
         <v>1083</v>
       </c>
-      <c r="J45" s="160" t="s">
+      <c r="J45" s="127" t="s">
         <v>1084</v>
       </c>
-      <c r="K45" s="160" t="s">
+      <c r="K45" s="127" t="s">
         <v>1085</v>
       </c>
-      <c r="L45" s="160" t="s">
+      <c r="L45" s="127" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="160">
+      <c r="B46" s="127">
         <v>20181027</v>
       </c>
-      <c r="C46" s="160" t="s">
+      <c r="C46" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D46" s="160" t="s">
+      <c r="D46" s="127" t="s">
         <v>1231</v>
       </c>
-      <c r="E46" s="160" t="s">
+      <c r="E46" s="127" t="s">
         <v>1232</v>
       </c>
-      <c r="F46" s="160" t="s">
+      <c r="F46" s="127" t="s">
         <v>1233</v>
       </c>
-      <c r="G46" s="160" t="s">
+      <c r="G46" s="127" t="s">
         <v>1234</v>
       </c>
-      <c r="H46" s="160" t="s">
+      <c r="H46" s="127" t="s">
         <v>1235</v>
       </c>
-      <c r="I46" s="160" t="s">
+      <c r="I46" s="127" t="s">
         <v>1236</v>
       </c>
-      <c r="J46" s="160" t="s">
+      <c r="J46" s="127" t="s">
         <v>1237</v>
       </c>
-      <c r="K46" s="160" t="s">
+      <c r="K46" s="127" t="s">
         <v>1238</v>
       </c>
-      <c r="L46" s="160" t="s">
+      <c r="L46" s="127" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="160">
+      <c r="B47" s="127">
         <v>20181027</v>
       </c>
-      <c r="C47" s="160" t="s">
+      <c r="C47" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D47" s="160" t="s">
+      <c r="D47" s="127" t="s">
         <v>1384</v>
       </c>
-      <c r="E47" s="160" t="s">
+      <c r="E47" s="127" t="s">
         <v>1385</v>
       </c>
-      <c r="F47" s="160" t="s">
+      <c r="F47" s="127" t="s">
         <v>1386</v>
       </c>
-      <c r="G47" s="160" t="s">
+      <c r="G47" s="127" t="s">
         <v>1387</v>
       </c>
-      <c r="H47" s="160" t="s">
+      <c r="H47" s="127" t="s">
         <v>1388</v>
       </c>
-      <c r="I47" s="160" t="s">
+      <c r="I47" s="127" t="s">
         <v>1389</v>
       </c>
-      <c r="J47" s="160" t="s">
+      <c r="J47" s="127" t="s">
         <v>1390</v>
       </c>
-      <c r="K47" s="160" t="s">
+      <c r="K47" s="127" t="s">
         <v>1391</v>
       </c>
-      <c r="L47" s="160" t="s">
+      <c r="L47" s="127" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="160">
+      <c r="B48" s="127">
         <v>20181103</v>
       </c>
-      <c r="C48" s="160" t="s">
+      <c r="C48" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D48" s="160" t="s">
+      <c r="D48" s="127" t="s">
         <v>934</v>
       </c>
-      <c r="E48" s="160" t="s">
+      <c r="E48" s="127" t="s">
         <v>935</v>
       </c>
-      <c r="F48" s="160" t="s">
+      <c r="F48" s="127" t="s">
         <v>936</v>
       </c>
-      <c r="G48" s="160" t="s">
+      <c r="G48" s="127" t="s">
         <v>937</v>
       </c>
-      <c r="H48" s="160" t="s">
+      <c r="H48" s="127" t="s">
         <v>938</v>
       </c>
-      <c r="I48" s="160" t="s">
+      <c r="I48" s="127" t="s">
         <v>939</v>
       </c>
-      <c r="J48" s="160" t="s">
+      <c r="J48" s="127" t="s">
         <v>940</v>
       </c>
-      <c r="K48" s="160" t="s">
+      <c r="K48" s="127" t="s">
         <v>941</v>
       </c>
-      <c r="L48" s="160" t="s">
+      <c r="L48" s="127" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="160">
+      <c r="B49" s="127">
         <v>20181103</v>
       </c>
-      <c r="C49" s="160" t="s">
+      <c r="C49" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D49" s="160" t="s">
+      <c r="D49" s="127" t="s">
         <v>1087</v>
       </c>
-      <c r="E49" s="160" t="s">
+      <c r="E49" s="127" t="s">
         <v>1088</v>
       </c>
-      <c r="F49" s="160" t="s">
+      <c r="F49" s="127" t="s">
         <v>1089</v>
       </c>
-      <c r="G49" s="160" t="s">
+      <c r="G49" s="127" t="s">
         <v>1090</v>
       </c>
-      <c r="H49" s="160" t="s">
+      <c r="H49" s="127" t="s">
         <v>1091</v>
       </c>
-      <c r="I49" s="160" t="s">
+      <c r="I49" s="127" t="s">
         <v>1092</v>
       </c>
-      <c r="J49" s="160" t="s">
+      <c r="J49" s="127" t="s">
         <v>1093</v>
       </c>
-      <c r="K49" s="160" t="s">
+      <c r="K49" s="127" t="s">
         <v>1094</v>
       </c>
-      <c r="L49" s="160" t="s">
+      <c r="L49" s="127" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="160">
+      <c r="B50" s="127">
         <v>20181103</v>
       </c>
-      <c r="C50" s="160" t="s">
+      <c r="C50" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D50" s="160" t="s">
+      <c r="D50" s="127" t="s">
         <v>1240</v>
       </c>
-      <c r="E50" s="160" t="s">
+      <c r="E50" s="127" t="s">
         <v>1241</v>
       </c>
-      <c r="F50" s="160" t="s">
+      <c r="F50" s="127" t="s">
         <v>1242</v>
       </c>
-      <c r="G50" s="160" t="s">
+      <c r="G50" s="127" t="s">
         <v>1243</v>
       </c>
-      <c r="H50" s="160" t="s">
+      <c r="H50" s="127" t="s">
         <v>1244</v>
       </c>
-      <c r="I50" s="160" t="s">
+      <c r="I50" s="127" t="s">
         <v>1245</v>
       </c>
-      <c r="J50" s="160" t="s">
+      <c r="J50" s="127" t="s">
         <v>1246</v>
       </c>
-      <c r="K50" s="160" t="s">
+      <c r="K50" s="127" t="s">
         <v>1247</v>
       </c>
-      <c r="L50" s="160" t="s">
+      <c r="L50" s="127" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="160">
+      <c r="B51" s="127">
         <v>20181103</v>
       </c>
-      <c r="C51" s="160" t="s">
+      <c r="C51" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D51" s="160" t="s">
+      <c r="D51" s="127" t="s">
         <v>1393</v>
       </c>
-      <c r="E51" s="160" t="s">
+      <c r="E51" s="127" t="s">
         <v>1394</v>
       </c>
-      <c r="F51" s="160" t="s">
+      <c r="F51" s="127" t="s">
         <v>1395</v>
       </c>
-      <c r="G51" s="160" t="s">
+      <c r="G51" s="127" t="s">
         <v>1396</v>
       </c>
-      <c r="H51" s="160" t="s">
+      <c r="H51" s="127" t="s">
         <v>1397</v>
       </c>
-      <c r="I51" s="160" t="s">
+      <c r="I51" s="127" t="s">
         <v>1398</v>
       </c>
-      <c r="J51" s="160" t="s">
+      <c r="J51" s="127" t="s">
         <v>1399</v>
       </c>
-      <c r="K51" s="160" t="s">
+      <c r="K51" s="127" t="s">
         <v>1400</v>
       </c>
-      <c r="L51" s="160" t="s">
+      <c r="L51" s="127" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="160">
+      <c r="B52" s="127">
         <v>20181107</v>
       </c>
-      <c r="C52" s="160" t="s">
+      <c r="C52" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D52" s="160" t="s">
+      <c r="D52" s="127" t="s">
         <v>943</v>
       </c>
-      <c r="E52" s="160" t="s">
+      <c r="E52" s="127" t="s">
         <v>944</v>
       </c>
-      <c r="F52" s="160" t="s">
+      <c r="F52" s="127" t="s">
         <v>945</v>
       </c>
-      <c r="G52" s="160" t="s">
+      <c r="G52" s="127" t="s">
         <v>946</v>
       </c>
-      <c r="H52" s="160" t="s">
+      <c r="H52" s="127" t="s">
         <v>947</v>
       </c>
-      <c r="I52" s="160" t="s">
+      <c r="I52" s="127" t="s">
         <v>948</v>
       </c>
-      <c r="J52" s="160" t="s">
+      <c r="J52" s="127" t="s">
         <v>949</v>
       </c>
-      <c r="K52" s="160" t="s">
+      <c r="K52" s="127" t="s">
         <v>950</v>
       </c>
-      <c r="L52" s="160" t="s">
+      <c r="L52" s="127" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="160">
+      <c r="B53" s="127">
         <v>20181107</v>
       </c>
-      <c r="C53" s="160" t="s">
+      <c r="C53" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D53" s="160" t="s">
+      <c r="D53" s="127" t="s">
         <v>1096</v>
       </c>
-      <c r="E53" s="160" t="s">
+      <c r="E53" s="127" t="s">
         <v>1097</v>
       </c>
-      <c r="F53" s="160" t="s">
+      <c r="F53" s="127" t="s">
         <v>1098</v>
       </c>
-      <c r="G53" s="160" t="s">
+      <c r="G53" s="127" t="s">
         <v>1099</v>
       </c>
-      <c r="H53" s="160" t="s">
+      <c r="H53" s="127" t="s">
         <v>1100</v>
       </c>
-      <c r="I53" s="160" t="s">
+      <c r="I53" s="127" t="s">
         <v>1101</v>
       </c>
-      <c r="J53" s="160" t="s">
+      <c r="J53" s="127" t="s">
         <v>1102</v>
       </c>
-      <c r="K53" s="160" t="s">
+      <c r="K53" s="127" t="s">
         <v>1103</v>
       </c>
-      <c r="L53" s="160" t="s">
+      <c r="L53" s="127" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="160">
+      <c r="B54" s="127">
         <v>20181107</v>
       </c>
-      <c r="C54" s="160" t="s">
+      <c r="C54" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D54" s="160" t="s">
+      <c r="D54" s="127" t="s">
         <v>1249</v>
       </c>
-      <c r="E54" s="160" t="s">
+      <c r="E54" s="127" t="s">
         <v>1250</v>
       </c>
-      <c r="F54" s="160" t="s">
+      <c r="F54" s="127" t="s">
         <v>1251</v>
       </c>
-      <c r="G54" s="160" t="s">
+      <c r="G54" s="127" t="s">
         <v>1252</v>
       </c>
-      <c r="H54" s="160" t="s">
+      <c r="H54" s="127" t="s">
         <v>1253</v>
       </c>
-      <c r="I54" s="160" t="s">
+      <c r="I54" s="127" t="s">
         <v>1254</v>
       </c>
-      <c r="J54" s="160" t="s">
+      <c r="J54" s="127" t="s">
         <v>1255</v>
       </c>
-      <c r="K54" s="160" t="s">
+      <c r="K54" s="127" t="s">
         <v>1256</v>
       </c>
-      <c r="L54" s="160" t="s">
+      <c r="L54" s="127" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="160">
+      <c r="B55" s="127">
         <v>20181107</v>
       </c>
-      <c r="C55" s="160" t="s">
+      <c r="C55" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D55" s="160" t="s">
+      <c r="D55" s="127" t="s">
         <v>1402</v>
       </c>
-      <c r="E55" s="160" t="s">
+      <c r="E55" s="127" t="s">
         <v>1403</v>
       </c>
-      <c r="F55" s="160" t="s">
+      <c r="F55" s="127" t="s">
         <v>1404</v>
       </c>
-      <c r="G55" s="160" t="s">
+      <c r="G55" s="127" t="s">
         <v>1405</v>
       </c>
-      <c r="H55" s="160" t="s">
+      <c r="H55" s="127" t="s">
         <v>1406</v>
       </c>
-      <c r="I55" s="160" t="s">
+      <c r="I55" s="127" t="s">
         <v>1407</v>
       </c>
-      <c r="J55" s="160" t="s">
+      <c r="J55" s="127" t="s">
         <v>1408</v>
       </c>
-      <c r="K55" s="160" t="s">
+      <c r="K55" s="127" t="s">
         <v>1409</v>
       </c>
-      <c r="L55" s="160" t="s">
+      <c r="L55" s="127" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="160">
+      <c r="B56" s="127">
         <v>20181110</v>
       </c>
-      <c r="C56" s="160" t="s">
+      <c r="C56" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D56" s="160" t="s">
+      <c r="D56" s="127" t="s">
         <v>952</v>
       </c>
-      <c r="E56" s="160" t="s">
+      <c r="E56" s="127" t="s">
         <v>953</v>
       </c>
-      <c r="F56" s="160" t="s">
+      <c r="F56" s="127" t="s">
         <v>954</v>
       </c>
-      <c r="G56" s="160" t="s">
+      <c r="G56" s="127" t="s">
         <v>955</v>
       </c>
-      <c r="H56" s="160" t="s">
+      <c r="H56" s="127" t="s">
         <v>956</v>
       </c>
-      <c r="I56" s="160" t="s">
+      <c r="I56" s="127" t="s">
         <v>957</v>
       </c>
-      <c r="J56" s="160" t="s">
+      <c r="J56" s="127" t="s">
         <v>958</v>
       </c>
-      <c r="K56" s="160" t="s">
+      <c r="K56" s="127" t="s">
         <v>959</v>
       </c>
-      <c r="L56" s="160" t="s">
+      <c r="L56" s="127" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="160">
+      <c r="B57" s="127">
         <v>20181110</v>
       </c>
-      <c r="C57" s="160" t="s">
+      <c r="C57" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D57" s="160" t="s">
+      <c r="D57" s="127" t="s">
         <v>1105</v>
       </c>
-      <c r="E57" s="160" t="s">
+      <c r="E57" s="127" t="s">
         <v>1106</v>
       </c>
-      <c r="F57" s="160" t="s">
+      <c r="F57" s="127" t="s">
         <v>1107</v>
       </c>
-      <c r="G57" s="160" t="s">
+      <c r="G57" s="127" t="s">
         <v>1108</v>
       </c>
-      <c r="H57" s="160" t="s">
+      <c r="H57" s="127" t="s">
         <v>1109</v>
       </c>
-      <c r="I57" s="160" t="s">
+      <c r="I57" s="127" t="s">
         <v>1110</v>
       </c>
-      <c r="J57" s="160" t="s">
+      <c r="J57" s="127" t="s">
         <v>1111</v>
       </c>
-      <c r="K57" s="160" t="s">
+      <c r="K57" s="127" t="s">
         <v>1112</v>
       </c>
-      <c r="L57" s="160" t="s">
+      <c r="L57" s="127" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="160">
+      <c r="B58" s="127">
         <v>20181110</v>
       </c>
-      <c r="C58" s="160" t="s">
+      <c r="C58" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D58" s="160" t="s">
+      <c r="D58" s="127" t="s">
         <v>1258</v>
       </c>
-      <c r="E58" s="160" t="s">
+      <c r="E58" s="127" t="s">
         <v>1259</v>
       </c>
-      <c r="F58" s="160" t="s">
+      <c r="F58" s="127" t="s">
         <v>1260</v>
       </c>
-      <c r="G58" s="160" t="s">
+      <c r="G58" s="127" t="s">
         <v>1261</v>
       </c>
-      <c r="H58" s="160" t="s">
+      <c r="H58" s="127" t="s">
         <v>1262</v>
       </c>
-      <c r="I58" s="160" t="s">
+      <c r="I58" s="127" t="s">
         <v>1263</v>
       </c>
-      <c r="J58" s="160" t="s">
+      <c r="J58" s="127" t="s">
         <v>1264</v>
       </c>
-      <c r="K58" s="160" t="s">
+      <c r="K58" s="127" t="s">
         <v>1265</v>
       </c>
-      <c r="L58" s="160" t="s">
+      <c r="L58" s="127" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="160">
+      <c r="B59" s="127">
         <v>20181110</v>
       </c>
-      <c r="C59" s="160" t="s">
+      <c r="C59" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D59" s="160" t="s">
+      <c r="D59" s="127" t="s">
         <v>1411</v>
       </c>
-      <c r="E59" s="160" t="s">
+      <c r="E59" s="127" t="s">
         <v>1412</v>
       </c>
-      <c r="F59" s="160" t="s">
+      <c r="F59" s="127" t="s">
         <v>1413</v>
       </c>
-      <c r="G59" s="160" t="s">
+      <c r="G59" s="127" t="s">
         <v>1414</v>
       </c>
-      <c r="H59" s="160" t="s">
+      <c r="H59" s="127" t="s">
         <v>1415</v>
       </c>
-      <c r="I59" s="160" t="s">
+      <c r="I59" s="127" t="s">
         <v>1416</v>
       </c>
-      <c r="J59" s="160" t="s">
+      <c r="J59" s="127" t="s">
         <v>1417</v>
       </c>
-      <c r="K59" s="160" t="s">
+      <c r="K59" s="127" t="s">
         <v>1418</v>
       </c>
-      <c r="L59" s="160" t="s">
+      <c r="L59" s="127" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="160">
+      <c r="B60" s="127">
         <v>20181114</v>
       </c>
-      <c r="C60" s="160" t="s">
+      <c r="C60" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D60" s="160" t="s">
+      <c r="D60" s="127" t="s">
         <v>961</v>
       </c>
-      <c r="E60" s="160" t="s">
+      <c r="E60" s="127" t="s">
         <v>962</v>
       </c>
-      <c r="F60" s="160" t="s">
+      <c r="F60" s="127" t="s">
         <v>963</v>
       </c>
-      <c r="G60" s="160" t="s">
+      <c r="G60" s="127" t="s">
         <v>964</v>
       </c>
-      <c r="H60" s="160" t="s">
+      <c r="H60" s="127" t="s">
         <v>965</v>
       </c>
-      <c r="I60" s="160" t="s">
+      <c r="I60" s="127" t="s">
         <v>966</v>
       </c>
-      <c r="J60" s="160" t="s">
+      <c r="J60" s="127" t="s">
         <v>967</v>
       </c>
-      <c r="K60" s="160" t="s">
+      <c r="K60" s="127" t="s">
         <v>968</v>
       </c>
-      <c r="L60" s="160" t="s">
+      <c r="L60" s="127" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="160">
+      <c r="B61" s="127">
         <v>20181114</v>
       </c>
-      <c r="C61" s="160" t="s">
+      <c r="C61" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D61" s="160" t="s">
+      <c r="D61" s="127" t="s">
         <v>1114</v>
       </c>
-      <c r="E61" s="160" t="s">
+      <c r="E61" s="127" t="s">
         <v>1115</v>
       </c>
-      <c r="F61" s="160" t="s">
+      <c r="F61" s="127" t="s">
         <v>1116</v>
       </c>
-      <c r="G61" s="160" t="s">
+      <c r="G61" s="127" t="s">
         <v>1117</v>
       </c>
-      <c r="H61" s="160" t="s">
+      <c r="H61" s="127" t="s">
         <v>1118</v>
       </c>
-      <c r="I61" s="160" t="s">
+      <c r="I61" s="127" t="s">
         <v>1119</v>
       </c>
-      <c r="J61" s="160" t="s">
+      <c r="J61" s="127" t="s">
         <v>1120</v>
       </c>
-      <c r="K61" s="160" t="s">
+      <c r="K61" s="127" t="s">
         <v>1121</v>
       </c>
-      <c r="L61" s="160" t="s">
+      <c r="L61" s="127" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="160">
+      <c r="B62" s="127">
         <v>20181114</v>
       </c>
-      <c r="C62" s="160" t="s">
+      <c r="C62" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D62" s="160" t="s">
+      <c r="D62" s="127" t="s">
         <v>1267</v>
       </c>
-      <c r="E62" s="160" t="s">
+      <c r="E62" s="127" t="s">
         <v>1268</v>
       </c>
-      <c r="F62" s="160" t="s">
+      <c r="F62" s="127" t="s">
         <v>1269</v>
       </c>
-      <c r="G62" s="160" t="s">
+      <c r="G62" s="127" t="s">
         <v>1270</v>
       </c>
-      <c r="H62" s="160" t="s">
+      <c r="H62" s="127" t="s">
         <v>1271</v>
       </c>
-      <c r="I62" s="160" t="s">
+      <c r="I62" s="127" t="s">
         <v>1272</v>
       </c>
-      <c r="J62" s="160" t="s">
+      <c r="J62" s="127" t="s">
         <v>1273</v>
       </c>
-      <c r="K62" s="160" t="s">
+      <c r="K62" s="127" t="s">
         <v>1274</v>
       </c>
-      <c r="L62" s="160" t="s">
+      <c r="L62" s="127" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="160">
+      <c r="B63" s="127">
         <v>20181114</v>
       </c>
-      <c r="C63" s="160" t="s">
+      <c r="C63" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D63" s="160" t="s">
+      <c r="D63" s="127" t="s">
         <v>1420</v>
       </c>
-      <c r="E63" s="160" t="s">
+      <c r="E63" s="127" t="s">
         <v>1421</v>
       </c>
-      <c r="F63" s="160" t="s">
+      <c r="F63" s="127" t="s">
         <v>1422</v>
       </c>
-      <c r="G63" s="160" t="s">
+      <c r="G63" s="127" t="s">
         <v>1423</v>
       </c>
-      <c r="H63" s="160" t="s">
+      <c r="H63" s="127" t="s">
         <v>1424</v>
       </c>
-      <c r="I63" s="160" t="s">
+      <c r="I63" s="127" t="s">
         <v>1425</v>
       </c>
-      <c r="J63" s="160" t="s">
+      <c r="J63" s="127" t="s">
         <v>1426</v>
       </c>
-      <c r="K63" s="160" t="s">
+      <c r="K63" s="127" t="s">
         <v>1427</v>
       </c>
-      <c r="L63" s="160" t="s">
+      <c r="L63" s="127" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="160">
+      <c r="B64" s="127">
         <v>20181117</v>
       </c>
-      <c r="C64" s="160" t="s">
+      <c r="C64" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D64" s="160" t="s">
+      <c r="D64" s="127" t="s">
         <v>970</v>
       </c>
-      <c r="E64" s="160" t="s">
+      <c r="E64" s="127" t="s">
         <v>971</v>
       </c>
-      <c r="F64" s="160" t="s">
+      <c r="F64" s="127" t="s">
         <v>972</v>
       </c>
-      <c r="G64" s="160" t="s">
+      <c r="G64" s="127" t="s">
         <v>973</v>
       </c>
-      <c r="H64" s="160" t="s">
+      <c r="H64" s="127" t="s">
         <v>974</v>
       </c>
-      <c r="I64" s="160" t="s">
+      <c r="I64" s="127" t="s">
         <v>975</v>
       </c>
-      <c r="J64" s="160" t="s">
+      <c r="J64" s="127" t="s">
         <v>976</v>
       </c>
-      <c r="K64" s="160" t="s">
+      <c r="K64" s="127" t="s">
         <v>977</v>
       </c>
-      <c r="L64" s="160" t="s">
+      <c r="L64" s="127" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="160">
+      <c r="B65" s="127">
         <v>20181117</v>
       </c>
-      <c r="C65" s="160" t="s">
+      <c r="C65" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D65" s="160" t="s">
+      <c r="D65" s="127" t="s">
         <v>1123</v>
       </c>
-      <c r="E65" s="160" t="s">
+      <c r="E65" s="127" t="s">
         <v>1124</v>
       </c>
-      <c r="F65" s="160" t="s">
+      <c r="F65" s="127" t="s">
         <v>1125</v>
       </c>
-      <c r="G65" s="160" t="s">
+      <c r="G65" s="127" t="s">
         <v>1126</v>
       </c>
-      <c r="H65" s="160" t="s">
+      <c r="H65" s="127" t="s">
         <v>1127</v>
       </c>
-      <c r="I65" s="160" t="s">
+      <c r="I65" s="127" t="s">
         <v>1128</v>
       </c>
-      <c r="J65" s="160" t="s">
+      <c r="J65" s="127" t="s">
         <v>1129</v>
       </c>
-      <c r="K65" s="160" t="s">
+      <c r="K65" s="127" t="s">
         <v>1130</v>
       </c>
-      <c r="L65" s="160" t="s">
+      <c r="L65" s="127" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="160">
+      <c r="B66" s="127">
         <v>20181117</v>
       </c>
-      <c r="C66" s="160" t="s">
+      <c r="C66" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D66" s="160" t="s">
+      <c r="D66" s="127" t="s">
         <v>1276</v>
       </c>
-      <c r="E66" s="160" t="s">
+      <c r="E66" s="127" t="s">
         <v>1277</v>
       </c>
-      <c r="F66" s="160" t="s">
+      <c r="F66" s="127" t="s">
         <v>1278</v>
       </c>
-      <c r="G66" s="160" t="s">
+      <c r="G66" s="127" t="s">
         <v>1279</v>
       </c>
-      <c r="H66" s="160" t="s">
+      <c r="H66" s="127" t="s">
         <v>1280</v>
       </c>
-      <c r="I66" s="160" t="s">
+      <c r="I66" s="127" t="s">
         <v>1281</v>
       </c>
-      <c r="J66" s="160" t="s">
+      <c r="J66" s="127" t="s">
         <v>1282</v>
       </c>
-      <c r="K66" s="160" t="s">
+      <c r="K66" s="127" t="s">
         <v>1283</v>
       </c>
-      <c r="L66" s="160" t="s">
+      <c r="L66" s="127" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="160">
+      <c r="B67" s="127">
         <v>20181117</v>
       </c>
-      <c r="C67" s="160" t="s">
+      <c r="C67" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D67" s="160" t="s">
+      <c r="D67" s="127" t="s">
         <v>1429</v>
       </c>
-      <c r="E67" s="160" t="s">
+      <c r="E67" s="127" t="s">
         <v>1430</v>
       </c>
-      <c r="F67" s="160" t="s">
+      <c r="F67" s="127" t="s">
         <v>1431</v>
       </c>
-      <c r="G67" s="160" t="s">
+      <c r="G67" s="127" t="s">
         <v>1432</v>
       </c>
-      <c r="H67" s="160" t="s">
+      <c r="H67" s="127" t="s">
         <v>1433</v>
       </c>
-      <c r="I67" s="160" t="s">
+      <c r="I67" s="127" t="s">
         <v>1434</v>
       </c>
-      <c r="J67" s="160" t="s">
+      <c r="J67" s="127" t="s">
         <v>1435</v>
       </c>
-      <c r="K67" s="160" t="s">
+      <c r="K67" s="127" t="s">
         <v>1436</v>
       </c>
-      <c r="L67" s="160" t="s">
+      <c r="L67" s="127" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="160">
+      <c r="B68" s="127">
         <v>20181125</v>
       </c>
-      <c r="C68" s="160" t="s">
+      <c r="C68" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="D68" s="160" t="s">
+      <c r="D68" s="127" t="s">
         <v>979</v>
       </c>
-      <c r="E68" s="160" t="s">
+      <c r="E68" s="127" t="s">
         <v>980</v>
       </c>
-      <c r="F68" s="160" t="s">
+      <c r="F68" s="127" t="s">
         <v>981</v>
       </c>
-      <c r="G68" s="160" t="s">
+      <c r="G68" s="127" t="s">
         <v>982</v>
       </c>
-      <c r="H68" s="160" t="s">
+      <c r="H68" s="127" t="s">
         <v>983</v>
       </c>
-      <c r="I68" s="160" t="s">
+      <c r="I68" s="127" t="s">
         <v>984</v>
       </c>
-      <c r="J68" s="160" t="s">
+      <c r="J68" s="127" t="s">
         <v>985</v>
       </c>
-      <c r="K68" s="160" t="s">
+      <c r="K68" s="127" t="s">
         <v>986</v>
       </c>
-      <c r="L68" s="160" t="s">
+      <c r="L68" s="127" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="160">
+      <c r="B69" s="127">
         <v>20181125</v>
       </c>
-      <c r="C69" s="160" t="s">
+      <c r="C69" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="D69" s="160" t="s">
+      <c r="D69" s="127" t="s">
         <v>1132</v>
       </c>
-      <c r="E69" s="160" t="s">
+      <c r="E69" s="127" t="s">
         <v>1133</v>
       </c>
-      <c r="F69" s="160" t="s">
+      <c r="F69" s="127" t="s">
         <v>1134</v>
       </c>
-      <c r="G69" s="160" t="s">
+      <c r="G69" s="127" t="s">
         <v>1135</v>
       </c>
-      <c r="H69" s="160" t="s">
+      <c r="H69" s="127" t="s">
         <v>1136</v>
       </c>
-      <c r="I69" s="160" t="s">
+      <c r="I69" s="127" t="s">
         <v>1137</v>
       </c>
-      <c r="J69" s="160" t="s">
+      <c r="J69" s="127" t="s">
         <v>1138</v>
       </c>
-      <c r="K69" s="160" t="s">
+      <c r="K69" s="127" t="s">
         <v>1139</v>
       </c>
-      <c r="L69" s="160" t="s">
+      <c r="L69" s="127" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="160">
+      <c r="B70" s="127">
         <v>20181125</v>
       </c>
-      <c r="C70" s="160" t="s">
+      <c r="C70" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="D70" s="160" t="s">
+      <c r="D70" s="127" t="s">
         <v>1285</v>
       </c>
-      <c r="E70" s="160" t="s">
+      <c r="E70" s="127" t="s">
         <v>1286</v>
       </c>
-      <c r="F70" s="160" t="s">
+      <c r="F70" s="127" t="s">
         <v>1287</v>
       </c>
-      <c r="G70" s="160" t="s">
+      <c r="G70" s="127" t="s">
         <v>1288</v>
       </c>
-      <c r="H70" s="160" t="s">
+      <c r="H70" s="127" t="s">
         <v>1289</v>
       </c>
-      <c r="I70" s="160" t="s">
+      <c r="I70" s="127" t="s">
         <v>1290</v>
       </c>
-      <c r="J70" s="160" t="s">
+      <c r="J70" s="127" t="s">
         <v>1291</v>
       </c>
-      <c r="K70" s="160" t="s">
+      <c r="K70" s="127" t="s">
         <v>1292</v>
       </c>
-      <c r="L70" s="160" t="s">
+      <c r="L70" s="127" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="160">
+      <c r="B71" s="127">
         <v>20181125</v>
       </c>
-      <c r="C71" s="160" t="s">
+      <c r="C71" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D71" s="160" t="s">
+      <c r="D71" s="127" t="s">
         <v>1438</v>
       </c>
-      <c r="E71" s="160" t="s">
+      <c r="E71" s="127" t="s">
         <v>1439</v>
       </c>
-      <c r="F71" s="160" t="s">
+      <c r="F71" s="127" t="s">
         <v>1440</v>
       </c>
-      <c r="G71" s="160" t="s">
+      <c r="G71" s="127" t="s">
         <v>1441</v>
       </c>
-      <c r="H71" s="160" t="s">
+      <c r="H71" s="127" t="s">
         <v>1442</v>
       </c>
-      <c r="I71" s="160" t="s">
+      <c r="I71" s="127" t="s">
         <v>1443</v>
       </c>
-      <c r="J71" s="160" t="s">
+      <c r="J71" s="127" t="s">
         <v>1444</v>
       </c>
-      <c r="K71" s="160" t="s">
+      <c r="K71" s="127" t="s">
         <v>1445</v>
       </c>
-      <c r="L71" s="160" t="s">
+      <c r="L71" s="127" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -12065,16 +12065,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="160" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="2" spans="1:8" s="53" customFormat="1">
       <c r="A2" s="100" t="s">
@@ -26958,16 +26958,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="160" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="2" spans="1:8" s="53" customFormat="1">
       <c r="A2" s="100" t="s">
@@ -31605,67 +31605,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="N1" s="124" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="N1" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
     </row>
     <row r="2" spans="2:18" ht="15.6" thickBot="1">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
     </row>
     <row r="3" spans="2:18" ht="18" thickBot="1">
-      <c r="B3" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="H3" s="126" t="s">
+      <c r="B3" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="H3" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="N3" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="N3" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
     </row>
     <row r="4" spans="2:18" ht="18.600000000000001" thickBot="1">
       <c r="B4" s="11" t="s">
@@ -33566,67 +33566,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="N1" s="124" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="N1" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
     </row>
     <row r="2" spans="2:18" ht="15.6" thickBot="1">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
     </row>
     <row r="3" spans="2:18" ht="18" thickBot="1">
-      <c r="B3" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="H3" s="123" t="s">
+      <c r="B3" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="H3" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="N3" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="N3" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
     </row>
     <row r="4" spans="2:18" ht="18.600000000000001" thickBot="1">
       <c r="B4" s="11" t="s">
@@ -35300,24 +35300,24 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="134"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130" t="s">
+      <c r="G4" s="138"/>
+      <c r="H4" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="130"/>
+      <c r="I4" s="138"/>
     </row>
     <row r="5" spans="2:9" ht="15.6">
       <c r="D5" s="19" t="s">
@@ -35326,14 +35326,14 @@
       <c r="E5" s="20">
         <v>1</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="139">
         <v>21.004000000000001</v>
       </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="129" t="s">
+      <c r="G5" s="139"/>
+      <c r="H5" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="129"/>
+      <c r="I5" s="141"/>
     </row>
     <row r="6" spans="2:9" ht="15.6">
       <c r="D6" s="19" t="s">
@@ -35342,14 +35342,14 @@
       <c r="E6" s="20">
         <v>1</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="139">
         <v>11.489100000000001</v>
       </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="129">
+      <c r="G6" s="139"/>
+      <c r="H6" s="141">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I6" s="129"/>
+      <c r="I6" s="141"/>
     </row>
     <row r="7" spans="2:9">
       <c r="D7" s="32" t="s">
@@ -35358,14 +35358,14 @@
       <c r="E7" s="30">
         <v>1</v>
       </c>
-      <c r="F7" s="135">
+      <c r="F7" s="140">
         <v>0.29139999999999999</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135">
+      <c r="G7" s="140"/>
+      <c r="H7" s="140">
         <v>0.58930000000000005</v>
       </c>
-      <c r="I7" s="135"/>
+      <c r="I7" s="140"/>
     </row>
     <row r="9" spans="2:9" ht="16.2" thickBot="1">
       <c r="B9" s="71" t="s">
@@ -35392,10 +35392,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="24" customHeight="1">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="131"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="19" t="s">
         <v>49</v>
       </c>
@@ -35416,8 +35416,8 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.6">
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="19" t="s">
         <v>50</v>
       </c>
@@ -35461,14 +35461,14 @@
       <c r="E14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="F14" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130" t="s">
+      <c r="G14" s="138"/>
+      <c r="H14" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="130"/>
+      <c r="I14" s="138"/>
     </row>
     <row r="15" spans="2:9">
       <c r="D15" s="32" t="s">
@@ -35477,14 +35477,14 @@
       <c r="E15" s="30">
         <v>-7359.299</v>
       </c>
-      <c r="F15" s="127">
+      <c r="F15" s="142">
         <v>-5183.3040000000001</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127">
+      <c r="G15" s="142"/>
+      <c r="H15" s="142">
         <v>-4472.5200000000004</v>
       </c>
-      <c r="I15" s="127"/>
+      <c r="I15" s="142"/>
     </row>
     <row r="18" spans="2:9" ht="18.600000000000001">
       <c r="B18" s="70" t="s">
@@ -35499,24 +35499,24 @@
       <c r="I18" s="37"/>
     </row>
     <row r="19" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="134"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130" t="s">
+      <c r="G19" s="138"/>
+      <c r="H19" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="130"/>
+      <c r="I19" s="138"/>
     </row>
     <row r="20" spans="2:9">
       <c r="D20" s="32" t="s">
@@ -35525,14 +35525,14 @@
       <c r="E20" s="30">
         <v>1</v>
       </c>
-      <c r="F20" s="135">
+      <c r="F20" s="140">
         <v>2.2172999999999998</v>
       </c>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135">
+      <c r="G20" s="140"/>
+      <c r="H20" s="140">
         <v>0.13650000000000001</v>
       </c>
-      <c r="I20" s="135"/>
+      <c r="I20" s="140"/>
     </row>
     <row r="21" spans="2:9" ht="15.6">
       <c r="D21" s="19" t="s">
@@ -35541,14 +35541,14 @@
       <c r="E21" s="20">
         <v>1</v>
       </c>
-      <c r="F21" s="128">
+      <c r="F21" s="139">
         <v>40.541200000000003</v>
       </c>
-      <c r="G21" s="128"/>
-      <c r="H21" s="129" t="s">
+      <c r="G21" s="139"/>
+      <c r="H21" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="129"/>
+      <c r="I21" s="141"/>
     </row>
     <row r="22" spans="2:9" ht="15.6">
       <c r="D22" s="19" t="s">
@@ -35557,14 +35557,14 @@
       <c r="E22" s="20">
         <v>1</v>
       </c>
-      <c r="F22" s="128">
+      <c r="F22" s="139">
         <v>79.950599999999994</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="129" t="s">
+      <c r="G22" s="139"/>
+      <c r="H22" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="129"/>
+      <c r="I22" s="141"/>
     </row>
     <row r="24" spans="2:9" ht="16.2" thickBot="1">
       <c r="B24" s="71" t="s">
@@ -35591,10 +35591,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.6">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="39" t="s">
         <v>49</v>
       </c>
@@ -35615,8 +35615,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.6">
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="19" t="s">
         <v>50</v>
       </c>
@@ -35660,14 +35660,14 @@
       <c r="E29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="130" t="s">
+      <c r="F29" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130" t="s">
+      <c r="G29" s="138"/>
+      <c r="H29" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="130"/>
+      <c r="I29" s="138"/>
     </row>
     <row r="30" spans="2:9">
       <c r="D30" s="32" t="s">
@@ -35676,28 +35676,23 @@
       <c r="E30" s="30">
         <v>-24130.77</v>
       </c>
-      <c r="F30" s="127" t="s">
+      <c r="F30" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127">
+      <c r="G30" s="142"/>
+      <c r="H30" s="142">
         <v>-18100.5</v>
       </c>
-      <c r="I30" s="127"/>
+      <c r="I30" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="B25:C26"/>
@@ -35710,12 +35705,17 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35741,50 +35741,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
       <c r="G1" s="53"/>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1">
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="53"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
     </row>
     <row r="3" spans="2:12" ht="18" thickBot="1">
-      <c r="B3" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="H3" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
+      <c r="B3" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="H3" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B4" s="48" t="s">
@@ -36219,20 +36219,20 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="18" thickBot="1">
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="H20" s="138" t="s">
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="H20" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B21" s="48" t="s">
@@ -36621,18 +36621,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
     </row>
     <row r="3" spans="2:5" ht="16.2" thickBot="1">
       <c r="B3" s="50" t="s">
@@ -37064,40 +37064,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16.05" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="149" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
       <c r="H1" s="81"/>
       <c r="I1" s="81"/>
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
     </row>
     <row r="2" spans="2:11" ht="22.05" customHeight="1">
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
       <c r="H2" s="81"/>
       <c r="I2" s="81"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
     </row>
     <row r="3" spans="2:11" ht="25.05" customHeight="1">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -37488,14 +37488,14 @@
       <c r="K19" s="32"/>
     </row>
     <row r="21" spans="2:11" ht="22.95" customHeight="1">
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
     </row>
     <row r="22" spans="2:11" ht="16.2" thickBot="1">
       <c r="B22" s="84" t="s">
@@ -37666,14 +37666,14 @@
       <c r="G30" s="88"/>
     </row>
     <row r="31" spans="2:11" ht="25.95" customHeight="1">
-      <c r="B31" s="143" t="s">
+      <c r="B31" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
     </row>
     <row r="32" spans="2:11" ht="16.2" thickBot="1">
       <c r="B32" s="84" t="s">
@@ -37836,32 +37836,32 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="144" t="s">
+      <c r="B42" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
     </row>
     <row r="44" spans="2:7" ht="25.95" customHeight="1">
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="143"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
     </row>
     <row r="45" spans="2:7" ht="16.2" thickBot="1">
       <c r="B45" s="84" t="s">
@@ -38056,40 +38056,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16.05" customHeight="1">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
       <c r="H1" s="81"/>
       <c r="I1" s="81"/>
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
     </row>
     <row r="2" spans="2:11" ht="22.05" customHeight="1">
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
       <c r="H2" s="81"/>
       <c r="I2" s="81"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
     </row>
     <row r="3" spans="2:11" ht="25.05" customHeight="1">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -38480,14 +38480,14 @@
       <c r="K19" s="32"/>
     </row>
     <row r="21" spans="2:11" ht="22.95" customHeight="1">
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
     </row>
     <row r="22" spans="2:11" ht="16.2" thickBot="1">
       <c r="B22" s="84" t="s">
@@ -38658,14 +38658,14 @@
       <c r="G30" s="88"/>
     </row>
     <row r="31" spans="2:11" ht="25.95" customHeight="1">
-      <c r="B31" s="143" t="s">
+      <c r="B31" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
     </row>
     <row r="32" spans="2:11" ht="16.2" thickBot="1">
       <c r="B32" s="84" t="s">
@@ -38828,28 +38828,28 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
     </row>
     <row r="44" spans="2:7" ht="25.95" customHeight="1">
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="99"/>
@@ -38951,14 +38951,14 @@
       <c r="F3" s="103"/>
     </row>
     <row r="4" spans="3:8" ht="18">
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="156" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
     </row>
     <row r="5" spans="3:8" ht="16.2" thickBot="1">
       <c r="C5" s="115" t="s">
@@ -39045,14 +39045,14 @@
     </row>
     <row r="10" spans="3:8" ht="12" customHeight="1"/>
     <row r="11" spans="3:8" ht="21" customHeight="1">
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="156" t="s">
         <v>308</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
     </row>
     <row r="12" spans="3:8" ht="16.2" thickBot="1">
       <c r="C12" s="113" t="s">
@@ -39061,14 +39061,14 @@
       <c r="D12" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="150" t="s">
+      <c r="E12" s="153" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150" t="s">
+      <c r="F12" s="153"/>
+      <c r="G12" s="153" t="s">
         <v>298</v>
       </c>
-      <c r="H12" s="150"/>
+      <c r="H12" s="153"/>
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="117" t="s">
@@ -39077,14 +39077,14 @@
       <c r="D13" s="106">
         <v>212</v>
       </c>
-      <c r="E13" s="151">
+      <c r="E13" s="155">
         <v>179.6969</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151">
+      <c r="F13" s="155"/>
+      <c r="G13" s="155">
         <v>9.9698010000000004</v>
       </c>
-      <c r="H13" s="151"/>
+      <c r="H13" s="155"/>
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="117" t="s">
@@ -39093,14 +39093,14 @@
       <c r="D14" s="106">
         <v>211</v>
       </c>
-      <c r="E14" s="151">
+      <c r="E14" s="155">
         <v>186.54220000000001</v>
       </c>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151">
+      <c r="F14" s="155"/>
+      <c r="G14" s="155">
         <v>10.195854000000001</v>
       </c>
-      <c r="H14" s="151"/>
+      <c r="H14" s="155"/>
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="117" t="s">
@@ -39109,14 +39109,14 @@
       <c r="D15" s="106">
         <v>210</v>
       </c>
-      <c r="E15" s="151">
+      <c r="E15" s="155">
         <v>176.6369</v>
       </c>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151">
+      <c r="F15" s="155"/>
+      <c r="G15" s="155">
         <v>10.840081</v>
       </c>
-      <c r="H15" s="151"/>
+      <c r="H15" s="155"/>
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="117" t="s">
@@ -39125,14 +39125,14 @@
       <c r="D16" s="106">
         <v>211</v>
       </c>
-      <c r="E16" s="151">
+      <c r="E16" s="155">
         <v>165.1191</v>
       </c>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151">
+      <c r="F16" s="155"/>
+      <c r="G16" s="155">
         <v>10.414528000000001</v>
       </c>
-      <c r="H16" s="151"/>
+      <c r="H16" s="155"/>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="108"/>
@@ -39141,14 +39141,14 @@
       <c r="F17" s="108"/>
     </row>
     <row r="18" spans="3:8" ht="18">
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="157" t="s">
         <v>305</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
     </row>
     <row r="19" spans="3:8" ht="19.2" thickBot="1">
       <c r="C19" s="113" t="s">
@@ -39157,14 +39157,14 @@
       <c r="D19" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="E19" s="150" t="s">
+      <c r="E19" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150" t="s">
+      <c r="F19" s="153"/>
+      <c r="G19" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="150"/>
+      <c r="H19" s="153"/>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="108" t="s">
@@ -39173,25 +39173,17 @@
       <c r="D20" s="108">
         <v>2.0687000000000002</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="154">
         <v>3</v>
       </c>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152">
+      <c r="F20" s="154"/>
+      <c r="G20" s="154">
         <v>0.55830000000000002</v>
       </c>
-      <c r="H20" s="152"/>
+      <c r="H20" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C4:H4"/>
@@ -39201,6 +39193,14 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/Statistics/Results_summary.xlsx
+++ b/Output/Statistics/Results_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmaStrand\MyProjects\Acclim_Dynamics\Output\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B10206-B177-4376-9833-95D8537CA258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79477FED-8C46-4886-922A-337E21BCB42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolism" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="1449">
   <si>
     <t>Timepoint</t>
   </si>
@@ -4570,6 +4570,50 @@
   </si>
   <si>
     <t>27.583 ± 0.106</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>M. capitata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Type III ANOVA; Surv(lifespan, status) ~ Temperature * CO2 + (1|PLUG.ID/Tank)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P. acuta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Type III ANOVA; Surv(lifespan, status) ~ Temperature * CO2 + (1|PLUG.ID/Tank)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4827,7 +4871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4904,6 +4948,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4952,7 +5007,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5274,9 +5329,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5285,26 +5349,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5336,20 +5388,20 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5359,6 +5411,28 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -5775,8 +5849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5F79C1-D35C-C047-889A-12882B507491}">
   <dimension ref="B1:L90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L39" sqref="H4:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="15"/>
@@ -7135,8 +7209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C042A6-E1AB-2645-9C1D-0F0DDF171DC1}">
   <dimension ref="C3:F18"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A6" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -7154,12 +7228,12 @@
       <c r="F3" s="103"/>
     </row>
     <row r="5" spans="3:6" ht="18">
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="157" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
     </row>
     <row r="6" spans="3:6" ht="16.2" thickBot="1">
       <c r="C6" s="104" t="s">
@@ -7238,12 +7312,12 @@
       <c r="F11" s="108"/>
     </row>
     <row r="12" spans="3:6" ht="18">
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="152" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
     </row>
     <row r="13" spans="3:6" ht="19.2" thickBot="1">
       <c r="C13" s="104" t="s">
@@ -7325,29 +7399,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E81509-5EAD-4D6C-9F34-F77156147463}">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="85"/>
-    <col min="2" max="2" width="21" style="85" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="85" customWidth="1"/>
-    <col min="4" max="4" width="18.796875" style="85" customWidth="1"/>
-    <col min="5" max="5" width="17" style="85" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="85" customWidth="1"/>
-    <col min="7" max="7" width="16.8984375" style="85" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.09765625" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.09765625" style="85" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="85"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
     </row>
     <row r="3" spans="2:7" ht="16.2" thickBot="1">
       <c r="B3" s="118" t="s">
@@ -9614,7 +9686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEA87D1-2548-4A55-8922-8C853FE0093A}">
   <dimension ref="B3:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -12065,16 +12137,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="159" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
     </row>
     <row r="2" spans="1:8" s="53" customFormat="1">
       <c r="A2" s="100" t="s">
@@ -26958,16 +27030,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="159" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
     </row>
     <row r="2" spans="1:8" s="53" customFormat="1">
       <c r="A2" s="100" t="s">
@@ -31577,8 +31649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED3900D-0274-AF44-ABCA-72E49F338EC7}">
   <dimension ref="B1:R90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="15"/>
@@ -33538,8 +33610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78875509-8FE0-E14D-9EA2-C2EA75893B22}">
   <dimension ref="B1:R90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="15"/>
@@ -35248,76 +35320,78 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D3" sqref="D3:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.796875" style="32"/>
-    <col min="2" max="2" width="25.69921875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="32.19921875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="24" style="32" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="23" style="32" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" style="30" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="30" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" style="30"/>
-    <col min="9" max="9" width="13.69921875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" style="30" customWidth="1"/>
+    <col min="9" max="9" width="10" style="30" customWidth="1"/>
     <col min="10" max="16384" width="10.796875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.05" customHeight="1">
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="2:9" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
     </row>
     <row r="3" spans="2:9" ht="27" customHeight="1">
       <c r="B3" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="72"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="D3" s="161" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
     </row>
     <row r="4" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="135"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138" t="s">
+      <c r="G4" s="135"/>
+      <c r="H4" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="138"/>
+      <c r="I4" s="135"/>
     </row>
     <row r="5" spans="2:9" ht="15.6">
       <c r="D5" s="19" t="s">
@@ -35326,14 +35400,14 @@
       <c r="E5" s="20">
         <v>1</v>
       </c>
-      <c r="F5" s="139">
+      <c r="F5" s="133">
         <v>21.004000000000001</v>
       </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="141" t="s">
+      <c r="G5" s="133"/>
+      <c r="H5" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="2:9" ht="15.6">
       <c r="D6" s="19" t="s">
@@ -35342,14 +35416,14 @@
       <c r="E6" s="20">
         <v>1</v>
       </c>
-      <c r="F6" s="139">
+      <c r="F6" s="133">
         <v>11.489100000000001</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="141">
+      <c r="G6" s="133"/>
+      <c r="H6" s="134">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I6" s="141"/>
+      <c r="I6" s="134"/>
     </row>
     <row r="7" spans="2:9">
       <c r="D7" s="32" t="s">
@@ -35358,14 +35432,14 @@
       <c r="E7" s="30">
         <v>1</v>
       </c>
-      <c r="F7" s="140">
+      <c r="F7" s="139">
         <v>0.29139999999999999</v>
       </c>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140">
+      <c r="G7" s="139"/>
+      <c r="H7" s="139">
         <v>0.58930000000000005</v>
       </c>
-      <c r="I7" s="140"/>
+      <c r="I7" s="139"/>
     </row>
     <row r="9" spans="2:9" ht="16.2" thickBot="1">
       <c r="B9" s="71" t="s">
@@ -35392,10 +35466,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="24" customHeight="1">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="132"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="19" t="s">
         <v>49</v>
       </c>
@@ -35416,8 +35490,8 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.6">
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
       <c r="D11" s="19" t="s">
         <v>50</v>
       </c>
@@ -35438,6 +35512,8 @@
       </c>
     </row>
     <row r="12" spans="2:9">
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="32" t="s">
         <v>51</v>
       </c>
@@ -35456,19 +35532,23 @@
       <c r="I12" s="35">
         <v>0.59</v>
       </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
     </row>
     <row r="14" spans="2:9" ht="16.2" thickBot="1">
       <c r="E14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="138" t="s">
+      <c r="F14" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138" t="s">
+      <c r="G14" s="135"/>
+      <c r="H14" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="138"/>
+      <c r="I14" s="135"/>
     </row>
     <row r="15" spans="2:9">
       <c r="D15" s="32" t="s">
@@ -35477,46 +35557,49 @@
       <c r="E15" s="30">
         <v>-7359.299</v>
       </c>
-      <c r="F15" s="142">
+      <c r="F15" s="132">
         <v>-5183.3040000000001</v>
       </c>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142">
+      <c r="G15" s="132"/>
+      <c r="H15" s="132">
         <v>-4472.5200000000004</v>
       </c>
-      <c r="I15" s="142"/>
-    </row>
+      <c r="I15" s="132"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.6" thickBot="1"/>
     <row r="18" spans="2:9" ht="18.600000000000001">
       <c r="B18" s="70" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="72"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="D18" s="161" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
     </row>
     <row r="19" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="135"/>
+      <c r="C19" s="138"/>
       <c r="D19" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138" t="s">
+      <c r="G19" s="135"/>
+      <c r="H19" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="138"/>
+      <c r="I19" s="135"/>
     </row>
     <row r="20" spans="2:9">
       <c r="D20" s="32" t="s">
@@ -35525,14 +35608,14 @@
       <c r="E20" s="30">
         <v>1</v>
       </c>
-      <c r="F20" s="140">
+      <c r="F20" s="139">
         <v>2.2172999999999998</v>
       </c>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140">
+      <c r="G20" s="139"/>
+      <c r="H20" s="139">
         <v>0.13650000000000001</v>
       </c>
-      <c r="I20" s="140"/>
+      <c r="I20" s="139"/>
     </row>
     <row r="21" spans="2:9" ht="15.6">
       <c r="D21" s="19" t="s">
@@ -35541,14 +35624,14 @@
       <c r="E21" s="20">
         <v>1</v>
       </c>
-      <c r="F21" s="139">
+      <c r="F21" s="133">
         <v>40.541200000000003</v>
       </c>
-      <c r="G21" s="139"/>
-      <c r="H21" s="141" t="s">
+      <c r="G21" s="133"/>
+      <c r="H21" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="141"/>
+      <c r="I21" s="134"/>
     </row>
     <row r="22" spans="2:9" ht="15.6">
       <c r="D22" s="19" t="s">
@@ -35557,14 +35640,14 @@
       <c r="E22" s="20">
         <v>1</v>
       </c>
-      <c r="F22" s="139">
+      <c r="F22" s="133">
         <v>79.950599999999994</v>
       </c>
-      <c r="G22" s="139"/>
-      <c r="H22" s="141" t="s">
+      <c r="G22" s="133"/>
+      <c r="H22" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="141"/>
+      <c r="I22" s="134"/>
     </row>
     <row r="24" spans="2:9" ht="16.2" thickBot="1">
       <c r="B24" s="71" t="s">
@@ -35590,11 +35673,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.6">
-      <c r="B25" s="132" t="s">
+    <row r="25" spans="2:9" ht="15.6" customHeight="1">
+      <c r="B25" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="132"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="39" t="s">
         <v>49</v>
       </c>
@@ -35615,8 +35698,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.6">
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
       <c r="D26" s="19" t="s">
         <v>50</v>
       </c>
@@ -35637,6 +35720,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.6">
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="19" t="s">
         <v>51</v>
       </c>
@@ -35655,19 +35740,23 @@
       <c r="I27" s="21" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
     </row>
     <row r="29" spans="2:9" ht="16.2" thickBot="1">
       <c r="E29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="138" t="s">
+      <c r="F29" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138" t="s">
+      <c r="G29" s="135"/>
+      <c r="H29" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="138"/>
+      <c r="I29" s="135"/>
     </row>
     <row r="30" spans="2:9">
       <c r="D30" s="32" t="s">
@@ -35676,36 +35765,17 @@
       <c r="E30" s="30">
         <v>-24130.77</v>
       </c>
-      <c r="F30" s="142" t="s">
+      <c r="F30" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142">
+      <c r="G30" s="132"/>
+      <c r="H30" s="132">
         <v>-18100.5</v>
       </c>
-      <c r="I30" s="142"/>
+      <c r="I30" s="132"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B10:C11"/>
+  <mergeCells count="31">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="F4:G4"/>
@@ -35716,6 +35786,27 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B10:C13"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35725,8 +35816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21807EB-5189-2E47-85FD-BCB7055F6515}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -35741,50 +35832,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
       <c r="G1" s="53"/>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
     </row>
     <row r="2" spans="2:12" ht="27" customHeight="1">
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
       <c r="G2" s="53"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
     </row>
     <row r="3" spans="2:12" ht="18" thickBot="1">
-      <c r="B3" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="H3" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
+      <c r="B3" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="H3" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B4" s="48" t="s">
@@ -36219,20 +36310,20 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="18" thickBot="1">
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="H20" s="143" t="s">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="H20" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B21" s="48" t="s">
@@ -36604,16 +36695,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ABFAF6-E371-0746-B011-7242CD7A8CF9}">
-  <dimension ref="B1:E45"/>
+  <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.796875" style="47"/>
-    <col min="2" max="2" width="44" style="47" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="47" customWidth="1"/>
     <col min="3" max="3" width="10.296875" style="51" customWidth="1"/>
     <col min="4" max="4" width="10.796875" style="51"/>
     <col min="5" max="5" width="18.796875" style="51" customWidth="1"/>
@@ -36621,18 +36712,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
     </row>
     <row r="3" spans="2:5" ht="16.2" thickBot="1">
       <c r="B3" s="50" t="s">
@@ -36663,378 +36754,294 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="18">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="32"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="52" t="s">
+      <c r="B6" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C6" s="35">
         <v>-1.0843</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D6" s="59">
         <v>37.811</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E6" s="35">
         <v>0.28510000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18">
-      <c r="B8" s="13" t="s">
+    <row r="7" spans="2:5" ht="18">
+      <c r="B7" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1.2234</v>
+      </c>
+      <c r="D8" s="59">
+        <v>44.265999999999998</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0.2276</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18">
+      <c r="B9" s="163" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="38"/>
       <c r="D9" s="60"/>
       <c r="E9" s="38"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="35">
-        <v>1.2234</v>
-      </c>
-      <c r="D10" s="59">
-        <v>44.265999999999998</v>
-      </c>
-      <c r="E10" s="35">
-        <v>0.2276</v>
+      <c r="B10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="43">
+        <v>-3.4384999999999999</v>
+      </c>
+      <c r="D10" s="45">
+        <v>44.000999999999998</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="36"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="43">
-        <v>-3.4384999999999999</v>
-      </c>
-      <c r="D13" s="45">
-        <v>44.000999999999998</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="18">
-      <c r="B14" s="13" t="s">
+      <c r="B12" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="66">
+        <v>-4.0388000000000002</v>
+      </c>
+      <c r="D12" s="62">
+        <v>40.850999999999999</v>
+      </c>
+      <c r="E12" s="98">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18">
+      <c r="B13" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="36"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="38"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="68"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="66">
+        <v>-3.0230000000000001</v>
+      </c>
+      <c r="D14" s="62">
+        <v>37.777000000000001</v>
+      </c>
+      <c r="E14" s="98">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18">
+      <c r="B15" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="68"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="66">
-        <v>-4.0388000000000002</v>
-      </c>
-      <c r="D16" s="62">
-        <v>40.850999999999999</v>
-      </c>
-      <c r="E16" s="98">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="18">
-      <c r="B17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="67"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="55"/>
+      <c r="B16" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="165">
+        <v>-3.2361</v>
+      </c>
+      <c r="D16" s="166">
+        <v>45.631</v>
+      </c>
+      <c r="E16" s="167">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="67">
+        <v>1.8842000000000001</v>
+      </c>
+      <c r="D17" s="63">
+        <v>229.73</v>
+      </c>
+      <c r="E17" s="67">
+        <v>6.08E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18">
+      <c r="B18" s="163" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" s="68"/>
       <c r="D18" s="64"/>
       <c r="E18" s="68"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="66">
-        <v>-3.0230000000000001</v>
-      </c>
-      <c r="D19" s="62">
-        <v>37.777000000000001</v>
-      </c>
-      <c r="E19" s="98">
-        <v>4.4999999999999997E-3</v>
+      <c r="B19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="67">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="D19" s="63">
+        <v>33.716999999999999</v>
+      </c>
+      <c r="E19" s="67">
+        <v>0.6502</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18">
-      <c r="B20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="67"/>
+      <c r="B20" s="163" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="55"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="68"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="66">
-        <v>-3.2361</v>
-      </c>
-      <c r="D22" s="62">
-        <v>45.631</v>
-      </c>
-      <c r="E22" s="98">
-        <v>2.3E-3</v>
-      </c>
+      <c r="B21" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="67">
+        <v>-0.12515999999999999</v>
+      </c>
+      <c r="D21" s="63">
+        <v>37.548999999999999</v>
+      </c>
+      <c r="E21" s="67">
+        <v>0.90110000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18">
+      <c r="B22" s="163" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="68"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="13"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="67"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="55"/>
+      <c r="B23" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="67">
+        <v>1.2561</v>
+      </c>
+      <c r="D23" s="63">
+        <v>36.850999999999999</v>
+      </c>
+      <c r="E23" s="67">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18">
+      <c r="B24" s="163" t="s">
+        <v>31</v>
+      </c>
       <c r="C24" s="68"/>
       <c r="D24" s="64"/>
       <c r="E24" s="68"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="67">
-        <v>1.8842000000000001</v>
-      </c>
-      <c r="D25" s="63">
-        <v>229.73</v>
-      </c>
-      <c r="E25" s="67">
-        <v>6.08E-2</v>
+      <c r="B25" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="66">
+        <v>2.5909</v>
+      </c>
+      <c r="D25" s="62">
+        <v>30.641999999999999</v>
+      </c>
+      <c r="E25" s="98">
+        <v>1.4500000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="18">
-      <c r="B26" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="67"/>
+      <c r="B26" s="163" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="68"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="55"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="68"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="67">
-        <v>0.45760000000000001</v>
-      </c>
-      <c r="D28" s="63">
-        <v>33.716999999999999</v>
-      </c>
-      <c r="E28" s="67">
-        <v>0.6502</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="18">
-      <c r="B29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="67"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="55"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="68"/>
+      <c r="B27" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="66">
+        <v>2.8515000000000001</v>
+      </c>
+      <c r="D27" s="62">
+        <v>28.989000000000001</v>
+      </c>
+      <c r="E27" s="98">
+        <v>7.9399999999999991E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18">
+      <c r="B28" s="163" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="68"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="164" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="165">
+        <v>5.0693999999999999</v>
+      </c>
+      <c r="D29" s="166">
+        <v>34.066000000000003</v>
+      </c>
+      <c r="E29" s="167" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="67">
-        <v>-0.12515999999999999</v>
-      </c>
-      <c r="D31" s="63">
-        <v>37.548999999999999</v>
-      </c>
-      <c r="E31" s="67">
-        <v>0.90110000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="18">
-      <c r="B32" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="67"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="55"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="68"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="67">
-        <v>1.2561</v>
-      </c>
-      <c r="D34" s="63">
-        <v>36.850999999999999</v>
-      </c>
-      <c r="E34" s="67">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="18">
-      <c r="B35" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="67"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="55"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="68"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="66">
-        <v>2.5909</v>
-      </c>
-      <c r="D37" s="62">
-        <v>30.641999999999999</v>
-      </c>
-      <c r="E37" s="98">
-        <v>1.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="18">
-      <c r="B38" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="67"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="55"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="68"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="66">
-        <v>2.8515000000000001</v>
-      </c>
-      <c r="D40" s="62">
-        <v>28.989000000000001</v>
-      </c>
-      <c r="E40" s="98">
-        <v>7.9399999999999991E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="18">
-      <c r="B41" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="67"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="55"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="68"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="66">
-        <v>5.0693999999999999</v>
-      </c>
-      <c r="D43" s="62">
-        <v>34.066000000000003</v>
-      </c>
-      <c r="E43" s="98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="13"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="56"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="55"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="57"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="56"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="55"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -37048,56 +37055,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C362F6-C5EC-A24E-B27B-16669A93CA5C}">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.796875" style="47"/>
-    <col min="2" max="2" width="42.69921875" style="85" customWidth="1"/>
-    <col min="3" max="5" width="16.5" style="51" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" style="51" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="51" customWidth="1"/>
+    <col min="2" max="2" width="38.296875" style="85" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="51" customWidth="1"/>
+    <col min="5" max="6" width="8.796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" style="51" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="16.5" style="47" customWidth="1"/>
     <col min="12" max="16384" width="10.796875" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16.05" customHeight="1">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
       <c r="H1" s="81"/>
       <c r="I1" s="81"/>
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
     </row>
     <row r="2" spans="2:11" ht="22.05" customHeight="1">
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
       <c r="H2" s="81"/>
       <c r="I2" s="81"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
     </row>
     <row r="3" spans="2:11" ht="25.05" customHeight="1">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -37488,14 +37496,14 @@
       <c r="K19" s="32"/>
     </row>
     <row r="21" spans="2:11" ht="22.95" customHeight="1">
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
     </row>
     <row r="22" spans="2:11" ht="16.2" thickBot="1">
       <c r="B22" s="84" t="s">
@@ -37666,14 +37674,14 @@
       <c r="G30" s="88"/>
     </row>
     <row r="31" spans="2:11" ht="25.95" customHeight="1">
-      <c r="B31" s="148" t="s">
+      <c r="B31" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
     </row>
     <row r="32" spans="2:11" ht="16.2" thickBot="1">
       <c r="B32" s="84" t="s">
@@ -37836,32 +37844,32 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="149" t="s">
+      <c r="B42" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
     </row>
     <row r="44" spans="2:7" ht="25.95" customHeight="1">
-      <c r="B44" s="148" t="s">
+      <c r="B44" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
     </row>
     <row r="45" spans="2:7" ht="16.2" thickBot="1">
       <c r="B45" s="84" t="s">
@@ -38040,56 +38048,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FF8875-836F-5542-A93E-7F77BBB5F49C}">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.796875" style="47"/>
-    <col min="2" max="2" width="42.69921875" style="85" customWidth="1"/>
-    <col min="3" max="5" width="16.5" style="51" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" style="51" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="51" customWidth="1"/>
+    <col min="2" max="2" width="37.296875" style="85" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="51" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" style="51" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="16.5" style="47" customWidth="1"/>
     <col min="12" max="16384" width="10.796875" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16.05" customHeight="1">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
       <c r="H1" s="81"/>
       <c r="I1" s="81"/>
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
     </row>
     <row r="2" spans="2:11" ht="22.05" customHeight="1">
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
       <c r="H2" s="81"/>
       <c r="I2" s="81"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
     </row>
     <row r="3" spans="2:11" ht="25.05" customHeight="1">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -38480,14 +38490,14 @@
       <c r="K19" s="32"/>
     </row>
     <row r="21" spans="2:11" ht="22.95" customHeight="1">
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
     </row>
     <row r="22" spans="2:11" ht="16.2" thickBot="1">
       <c r="B22" s="84" t="s">
@@ -38658,14 +38668,14 @@
       <c r="G30" s="88"/>
     </row>
     <row r="31" spans="2:11" ht="25.95" customHeight="1">
-      <c r="B31" s="148" t="s">
+      <c r="B31" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
     </row>
     <row r="32" spans="2:11" ht="16.2" thickBot="1">
       <c r="B32" s="84" t="s">
@@ -38828,28 +38838,28 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="149"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="149"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
     </row>
     <row r="44" spans="2:7" ht="25.95" customHeight="1">
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="99"/>
@@ -38932,8 +38942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE127B-7B53-574B-9873-73BCF871E1D2}">
   <dimension ref="C3:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -38951,14 +38961,14 @@
       <c r="F3" s="103"/>
     </row>
     <row r="4" spans="3:8" ht="18">
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="152" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
     </row>
     <row r="5" spans="3:8" ht="16.2" thickBot="1">
       <c r="C5" s="115" t="s">
@@ -39045,14 +39055,14 @@
     </row>
     <row r="10" spans="3:8" ht="12" customHeight="1"/>
     <row r="11" spans="3:8" ht="21" customHeight="1">
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="152" t="s">
         <v>308</v>
       </c>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
     </row>
     <row r="12" spans="3:8" ht="16.2" thickBot="1">
       <c r="C12" s="113" t="s">
@@ -39061,14 +39071,14 @@
       <c r="D12" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="153" t="s">
+      <c r="E12" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153" t="s">
+      <c r="F12" s="154"/>
+      <c r="G12" s="154" t="s">
         <v>298</v>
       </c>
-      <c r="H12" s="153"/>
+      <c r="H12" s="154"/>
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="117" t="s">
@@ -39141,14 +39151,14 @@
       <c r="F17" s="108"/>
     </row>
     <row r="18" spans="3:8" ht="18">
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="153" t="s">
         <v>305</v>
       </c>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
     </row>
     <row r="19" spans="3:8" ht="19.2" thickBot="1">
       <c r="C19" s="113" t="s">
@@ -39157,14 +39167,14 @@
       <c r="D19" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="E19" s="153" t="s">
+      <c r="E19" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153" t="s">
+      <c r="F19" s="154"/>
+      <c r="G19" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="153"/>
+      <c r="H19" s="154"/>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="108" t="s">
@@ -39173,17 +39183,25 @@
       <c r="D20" s="108">
         <v>2.0687000000000002</v>
       </c>
-      <c r="E20" s="154">
+      <c r="E20" s="156">
         <v>3</v>
       </c>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154">
+      <c r="F20" s="156"/>
+      <c r="G20" s="156">
         <v>0.55830000000000002</v>
       </c>
-      <c r="H20" s="154"/>
+      <c r="H20" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C4:H4"/>
@@ -39193,14 +39211,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
